--- a/src/utils/sxsyzlzq/friends/laodu/zz_ld_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/laodu/zz_ld_level.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10140" windowHeight="11430"/>
+    <workbookView windowWidth="10380" windowHeight="12015" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="萨维丽娅" sheetId="1" r:id="rId1"/>
-    <sheet name="亚芬戴克斯" sheetId="2" r:id="rId2"/>
-    <sheet name="伊萝莲" sheetId="3" r:id="rId3"/>
-    <sheet name="丹巴瓦尔" sheetId="9" r:id="rId4"/>
-    <sheet name="格纳罗尔" sheetId="10" r:id="rId5"/>
-    <sheet name="帝国" sheetId="5" r:id="rId6"/>
-    <sheet name="港口" sheetId="6" r:id="rId7"/>
-    <sheet name="禅意" sheetId="7" r:id="rId8"/>
-    <sheet name="蛮石" sheetId="8" r:id="rId9"/>
+    <sheet name="白处尊" sheetId="3" r:id="rId1"/>
+    <sheet name="萨维丽娅" sheetId="1" r:id="rId2"/>
+    <sheet name="亚芬戴克斯" sheetId="2" r:id="rId3"/>
+    <sheet name="迅" sheetId="9" r:id="rId4"/>
+    <sheet name="帝国" sheetId="5" r:id="rId5"/>
+    <sheet name="港口" sheetId="6" r:id="rId6"/>
+    <sheet name="禅意" sheetId="7" r:id="rId7"/>
+    <sheet name="蛮石" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="88">
   <si>
     <t>名称</t>
   </si>
@@ -55,187 +54,175 @@
     <t>蓝色</t>
   </si>
   <si>
+    <t>圣殿卫士</t>
+  </si>
+  <si>
+    <t>民兵队长</t>
+  </si>
+  <si>
+    <t>连击</t>
+  </si>
+  <si>
+    <t>盾甲禁卫</t>
+  </si>
+  <si>
+    <t>圣殿弩手</t>
+  </si>
+  <si>
+    <t>执剑道者</t>
+  </si>
+  <si>
+    <t>增援战线</t>
+  </si>
+  <si>
+    <t>龟族僧人</t>
+  </si>
+  <si>
+    <t>光明惩戒</t>
+  </si>
+  <si>
+    <t>小计：</t>
+  </si>
+  <si>
+    <t>蓝色卡等：</t>
+  </si>
+  <si>
+    <t>四芒军旗</t>
+  </si>
+  <si>
+    <t>紫色</t>
+  </si>
+  <si>
+    <t>圣殿御卫</t>
+  </si>
+  <si>
+    <t>圣殿骑士</t>
+  </si>
+  <si>
+    <t>驱魔道人</t>
+  </si>
+  <si>
+    <t>白袍主教</t>
+  </si>
+  <si>
+    <t>扫叶僧</t>
+  </si>
+  <si>
+    <t>边境高墙</t>
+  </si>
+  <si>
+    <t>御风武者</t>
+  </si>
+  <si>
+    <t>召集护卫</t>
+  </si>
+  <si>
+    <t>夺取阵地</t>
+  </si>
+  <si>
+    <t>禁卫百夫长</t>
+  </si>
+  <si>
+    <t>万物之灵</t>
+  </si>
+  <si>
+    <t>紫色卡等：</t>
+  </si>
+  <si>
+    <t>春花使者·卡洛琳</t>
+  </si>
+  <si>
+    <t>橙色</t>
+  </si>
+  <si>
+    <t>明日香·露娜</t>
+  </si>
+  <si>
+    <t>永恒之王·莱哈特</t>
+  </si>
+  <si>
+    <t>白袍·伊恩</t>
+  </si>
+  <si>
+    <t>武圣·云长</t>
+  </si>
+  <si>
+    <t>橙色卡等：</t>
+  </si>
+  <si>
+    <t>总计：</t>
+  </si>
+  <si>
     <t>心灵黑洞</t>
   </si>
   <si>
-    <t>圣殿卫士</t>
-  </si>
-  <si>
-    <t>民兵队长</t>
-  </si>
-  <si>
     <t>狡诈学徒</t>
   </si>
   <si>
     <t>黑夜突袭</t>
   </si>
   <si>
-    <t>圣殿弩手</t>
-  </si>
-  <si>
-    <t>增援战线</t>
-  </si>
-  <si>
     <t>热血矿工</t>
   </si>
   <si>
-    <t>光明惩戒</t>
-  </si>
-  <si>
-    <t>小计：</t>
-  </si>
-  <si>
-    <t>蓝色卡等：</t>
-  </si>
-  <si>
-    <t>四芒军旗</t>
-  </si>
-  <si>
-    <t>紫色</t>
-  </si>
-  <si>
-    <t>圣殿御卫</t>
-  </si>
-  <si>
     <t>海燕精卫</t>
   </si>
   <si>
-    <t>圣殿骑士</t>
-  </si>
-  <si>
-    <t>白袍主教</t>
-  </si>
-  <si>
-    <t>边境高墙</t>
-  </si>
-  <si>
-    <t>召集护卫</t>
-  </si>
-  <si>
     <t>黑金诈术师</t>
   </si>
   <si>
-    <t>夺取阵地</t>
-  </si>
-  <si>
-    <t>禁卫百夫长</t>
-  </si>
-  <si>
-    <t>紫色卡等：</t>
-  </si>
-  <si>
     <t>蒙面侠客·翔</t>
   </si>
   <si>
-    <t>橙色</t>
-  </si>
-  <si>
-    <t>春花使者·卡洛琳</t>
-  </si>
-  <si>
-    <t>明日香·露娜</t>
-  </si>
-  <si>
-    <t>永恒之王·莱哈特</t>
-  </si>
-  <si>
-    <t>白袍·伊恩</t>
-  </si>
-  <si>
     <t>黑道圣徒·梅森</t>
   </si>
   <si>
-    <t>武圣·云长</t>
-  </si>
-  <si>
-    <t>橙色卡等：</t>
-  </si>
-  <si>
-    <t>总计：</t>
-  </si>
-  <si>
-    <t>不法交易</t>
-  </si>
-  <si>
-    <t>酗酒醉汉</t>
-  </si>
-  <si>
-    <t>黑旗舰队飞斧手</t>
-  </si>
-  <si>
-    <t>黑水伏击</t>
-  </si>
-  <si>
-    <t>海盗船长</t>
-  </si>
-  <si>
-    <t>烈日大祭师</t>
-  </si>
-  <si>
-    <t>禁卫指挥官</t>
-  </si>
-  <si>
-    <t>黑旗舰队船长</t>
-  </si>
-  <si>
-    <t>花光春影·安娜贝尔</t>
-  </si>
-  <si>
-    <t>夏日女郎·鲍莉</t>
-  </si>
-  <si>
-    <t>方尖魔碑</t>
-  </si>
-  <si>
-    <t>沉重否定</t>
-  </si>
-  <si>
-    <t>学仆-能源型</t>
-  </si>
-  <si>
-    <t>破魔系教授</t>
-  </si>
-  <si>
-    <t>缄言法师</t>
-  </si>
-  <si>
-    <t>幻域秘树</t>
-  </si>
-  <si>
-    <t>阳炎坠落</t>
-  </si>
-  <si>
-    <t>改造魔卷</t>
-  </si>
-  <si>
-    <t>米拉方舟</t>
-  </si>
-  <si>
-    <t>百花长枪·卡洛琳</t>
-  </si>
-  <si>
-    <t>月之神·米拉</t>
-  </si>
-  <si>
-    <t>火蛇巫女·沃凡瑞拉</t>
-  </si>
-  <si>
-    <t>愚笨鲸头鹅</t>
-  </si>
-  <si>
-    <t>旷野祭师</t>
+    <t>魔力风暴</t>
+  </si>
+  <si>
+    <t>海神赐福</t>
+  </si>
+  <si>
+    <t>在逃重犯</t>
+  </si>
+  <si>
+    <t>奴役黑猿</t>
+  </si>
+  <si>
+    <t>樱花·艾希尔</t>
+  </si>
+  <si>
+    <t>百变魔牌·梅基</t>
   </si>
   <si>
     <t>势如破竹</t>
   </si>
   <si>
+    <t>拒马</t>
+  </si>
+  <si>
+    <t>苦行武僧</t>
+  </si>
+  <si>
+    <t>蓄力射手</t>
+  </si>
+  <si>
     <t>迅捷长矛手</t>
   </si>
   <si>
+    <t>叶幻师</t>
+  </si>
+  <si>
+    <t>铁山靠</t>
+  </si>
+  <si>
+    <t>风卷残云</t>
+  </si>
+  <si>
     <t>强行捕猎</t>
   </si>
   <si>
-    <t>血蜥头领</t>
+    <t>无畏猎户</t>
   </si>
   <si>
     <t>地洞巨獾</t>
@@ -244,49 +231,22 @@
     <t>活力仙人掌</t>
   </si>
   <si>
-    <t>肥鼠晚宴</t>
-  </si>
-  <si>
     <t>飞斧狂人</t>
   </si>
   <si>
     <t>饥蛮巨汉</t>
   </si>
   <si>
+    <t>泰山之力</t>
+  </si>
+  <si>
     <t>飞斧女豪</t>
   </si>
   <si>
-    <t>热血摇滚·凯</t>
-  </si>
-  <si>
-    <t>白象战歌·鲁玛</t>
-  </si>
-  <si>
-    <t>全数否定</t>
-  </si>
-  <si>
-    <t>虚化术</t>
-  </si>
-  <si>
-    <t>请示隐秘者</t>
-  </si>
-  <si>
-    <t>传记·海市蜃楼·蛇</t>
-  </si>
-  <si>
-    <t>克隆术</t>
-  </si>
-  <si>
-    <t>星辰陨落</t>
-  </si>
-  <si>
-    <t>召熊幻术师</t>
-  </si>
-  <si>
-    <t>幻象龙</t>
-  </si>
-  <si>
-    <t>盾甲禁卫</t>
+    <t>上宝沁金耙</t>
+  </si>
+  <si>
+    <t>许愿神树</t>
   </si>
   <si>
     <t>圣枪·卡洛琳</t>
@@ -307,18 +267,6 @@
     <t>帝国卡等：</t>
   </si>
   <si>
-    <t>魔力风暴</t>
-  </si>
-  <si>
-    <t>海神赐福</t>
-  </si>
-  <si>
-    <t>在逃重犯</t>
-  </si>
-  <si>
-    <t>奴役黑猿</t>
-  </si>
-  <si>
     <t>花剑绅士·翔</t>
   </si>
   <si>
@@ -334,45 +282,6 @@
     <t>港口卡等：</t>
   </si>
   <si>
-    <t>拒马</t>
-  </si>
-  <si>
-    <t>苦行武僧</t>
-  </si>
-  <si>
-    <t>连击</t>
-  </si>
-  <si>
-    <t>执剑道者</t>
-  </si>
-  <si>
-    <t>龟族僧人</t>
-  </si>
-  <si>
-    <t>叶幻师</t>
-  </si>
-  <si>
-    <t>铁山靠</t>
-  </si>
-  <si>
-    <t>风卷残云</t>
-  </si>
-  <si>
-    <t>驱魔道人</t>
-  </si>
-  <si>
-    <t>扫叶僧</t>
-  </si>
-  <si>
-    <t>御风武者</t>
-  </si>
-  <si>
-    <t>泰山之力</t>
-  </si>
-  <si>
-    <t>万物之灵</t>
-  </si>
-  <si>
     <t>悟能禅杖</t>
   </si>
   <si>
@@ -380,12 +289,6 @@
   </si>
   <si>
     <t>隐秘卡等：</t>
-  </si>
-  <si>
-    <t>蓄力射手</t>
-  </si>
-  <si>
-    <t>无畏猎户</t>
   </si>
   <si>
     <t>/</t>
@@ -1370,7 +1273,550 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="12.625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1">
+        <f>AVERAGE(D2:D13)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3</v>
+      </c>
+      <c r="D23" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3</v>
+      </c>
+      <c r="D24" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3</v>
+      </c>
+      <c r="D25" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="2">
+        <v>3</v>
+      </c>
+      <c r="D26" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="2">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="2">
+        <v>4</v>
+      </c>
+      <c r="D29" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="2">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="2">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2">
+        <v>12</v>
+      </c>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2">
+        <f>AVERAGE(D19:D31)</f>
+        <v>16.5384615384615</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="3">
+        <v>4</v>
+      </c>
+      <c r="D37" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="3">
+        <v>4</v>
+      </c>
+      <c r="D38" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="3">
+        <v>5</v>
+      </c>
+      <c r="D39" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="3">
+        <v>6</v>
+      </c>
+      <c r="D40" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="3">
+        <v>8</v>
+      </c>
+      <c r="D41" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3">
+        <f>AVERAGE(D37:D41)</f>
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4">
+        <f>AVERAGE(D2:D13,D19:D31,D37:D41)</f>
+        <v>17.3666666666667</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
@@ -1410,7 +1856,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -1424,7 +1870,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -1438,7 +1884,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -1452,7 +1898,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -1466,7 +1912,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -1480,7 +1926,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -1494,7 +1940,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -1522,7 +1968,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -1631,7 +2077,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>18</v>
@@ -1645,7 +2091,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>18</v>
@@ -1673,7 +2119,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>18</v>
@@ -1687,7 +2133,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>18</v>
@@ -1701,7 +2147,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>18</v>
@@ -1715,7 +2161,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>18</v>
@@ -1729,7 +2175,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>18</v>
@@ -1759,7 +2205,7 @@
         <v>15</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2">
@@ -1769,10 +2215,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C35" s="3">
         <v>2</v>
@@ -1786,7 +2232,7 @@
         <v>31</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C36" s="3">
         <v>4</v>
@@ -1797,10 +2243,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="C37" s="3">
         <v>4</v>
@@ -1811,10 +2257,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C38" s="3">
         <v>5</v>
@@ -1825,10 +2271,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C39" s="3">
         <v>6</v>
@@ -1839,10 +2285,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C40" s="3">
         <v>7</v>
@@ -1856,7 +2302,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C41" s="3">
         <v>8</v>
@@ -1899,553 +2345,6 @@
       <c r="D47" s="4">
         <f>AVERAGE(D2:D13,D19:D29,D35:D41)</f>
         <v>16.4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F47"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
-    <col min="4" max="4" width="12.625"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1">
-        <f>AVERAGE(D2:D13)</f>
-        <v>17.3333333333333</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="2">
-        <v>2</v>
-      </c>
-      <c r="D20" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="2">
-        <v>2</v>
-      </c>
-      <c r="D21" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="2">
-        <v>3</v>
-      </c>
-      <c r="D22" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="2">
-        <v>3</v>
-      </c>
-      <c r="D23" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="2">
-        <v>3</v>
-      </c>
-      <c r="D24" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="2">
-        <v>4</v>
-      </c>
-      <c r="D25" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="2">
-        <v>4</v>
-      </c>
-      <c r="D26" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="2">
-        <v>4</v>
-      </c>
-      <c r="D27" s="2">
-        <v>14</v>
-      </c>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="2">
-        <v>5</v>
-      </c>
-      <c r="D28" s="2">
-        <v>18</v>
-      </c>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="2">
-        <v>5</v>
-      </c>
-      <c r="D29" s="2">
-        <v>14</v>
-      </c>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="2">
-        <v>6</v>
-      </c>
-      <c r="D30" s="2">
-        <v>17</v>
-      </c>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="2">
-        <v>6</v>
-      </c>
-      <c r="D31" s="2">
-        <v>15</v>
-      </c>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2">
-        <f>AVERAGE(D19:D31)</f>
-        <v>16.5384615384615</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="3">
-        <v>3</v>
-      </c>
-      <c r="D37" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="3">
-        <v>3</v>
-      </c>
-      <c r="D38" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="3">
-        <v>4</v>
-      </c>
-      <c r="D39" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" s="3">
-        <v>4</v>
-      </c>
-      <c r="D40" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="3">
-        <v>6</v>
-      </c>
-      <c r="D41" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3">
-        <f>AVERAGE(D37:D41)</f>
-        <v>15.6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4">
-        <f>AVERAGE(D2:D13,D19:D31,D37:D41)</f>
-        <v>16.7</v>
       </c>
     </row>
   </sheetData>
@@ -2460,8 +2359,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2486,13 +2385,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
         <v>20</v>
@@ -2500,178 +2399,178 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1">
-        <f>AVERAGE(D2:D9)</f>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
+        <f>AVERAGE(D2:D11)</f>
         <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="2">
-        <v>2</v>
-      </c>
-      <c r="D16" s="2">
-        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="2">
         <v>20</v>
@@ -2679,13 +2578,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" s="2">
         <v>18</v>
@@ -2693,49 +2592,49 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" s="2">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>18</v>
@@ -2744,12 +2643,12 @@
         <v>4</v>
       </c>
       <c r="D23" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>18</v>
@@ -2758,12 +2657,12 @@
         <v>4</v>
       </c>
       <c r="D24" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>18</v>
@@ -2772,10 +2671,11 @@
         <v>4</v>
       </c>
       <c r="D25" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
@@ -2783,38 +2683,40 @@
         <v>18</v>
       </c>
       <c r="C26" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C27" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D27" s="2">
-        <v>17</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C28" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D28" s="2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F28" s="5"/>
     </row>
@@ -2835,82 +2737,82 @@
         <v>15</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2">
-        <f>AVERAGE(D15:D28)</f>
-        <v>14.9285714285714</v>
+        <f>AVERAGE(D17:D28)</f>
+        <v>15.5</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C34" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C35" s="3">
         <v>4</v>
       </c>
       <c r="D35" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="C36" s="3">
         <v>4</v>
       </c>
       <c r="D36" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C37" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C38" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2918,10 +2820,10 @@
         <v>34</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C39" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" s="3">
         <v>17</v>
@@ -2929,30 +2831,30 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C40" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D40" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C41" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D41" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2977,7 +2879,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D34:D41)</f>
-        <v>14.875</v>
+        <v>13.875</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2987,8 +2889,8 @@
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D9,D15:D28,D34:D41)</f>
-        <v>15.4666666666667</v>
+        <f>AVERAGE(D2:D11,D17:D28,D34:D41)</f>
+        <v>15.5666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -3003,8 +2905,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3029,21 +2931,21 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -3052,12 +2954,12 @@
         <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -3066,12 +2968,12 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -3080,26 +2982,26 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -3113,7 +3015,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -3122,163 +3024,163 @@
         <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
         <v>14</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1">
-        <f>AVERAGE(D2:D11)</f>
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="2">
-        <v>2</v>
-      </c>
-      <c r="D18" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="2">
-        <v>2</v>
-      </c>
-      <c r="D19" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="2">
-        <v>3</v>
-      </c>
-      <c r="D20" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="2">
-        <v>3</v>
-      </c>
-      <c r="D21" s="2">
-        <v>18</v>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1">
+        <f>AVERAGE(D2:D16)</f>
+        <v>16.2666666666667</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>18</v>
@@ -3287,12 +3189,12 @@
         <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>18</v>
@@ -3301,32 +3203,32 @@
         <v>3</v>
       </c>
       <c r="D24" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" s="2">
         <v>14</v>
@@ -3334,7 +3236,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>18</v>
@@ -3343,160 +3245,160 @@
         <v>4</v>
       </c>
       <c r="D27" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="2">
+        <v>4</v>
+      </c>
+      <c r="D29" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="2">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="2">
+        <v>4</v>
+      </c>
+      <c r="D31" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="2">
-        <v>5</v>
-      </c>
-      <c r="D28" s="2">
-        <v>18</v>
-      </c>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="2">
-        <v>5</v>
-      </c>
-      <c r="D29" s="2">
-        <v>13</v>
-      </c>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="2">
+        <v>5</v>
+      </c>
+      <c r="D32" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="2">
+        <v>5</v>
+      </c>
+      <c r="D33" s="2">
+        <v>12</v>
+      </c>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="2">
+        <v>5</v>
+      </c>
+      <c r="D34" s="2">
+        <v>10</v>
+      </c>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2">
-        <f>AVERAGE(D17:D29)</f>
+      <c r="B37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2">
+        <f>AVERAGE(D22:D34)</f>
         <v>15.3846153846154</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="3">
-        <v>3</v>
-      </c>
-      <c r="D35" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="3">
-        <v>4</v>
-      </c>
-      <c r="D36" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="3">
-        <v>4</v>
-      </c>
-      <c r="D37" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="3">
-        <v>5</v>
-      </c>
-      <c r="D38" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="3">
-        <v>5</v>
-      </c>
-      <c r="D39" s="3">
-        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C40" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D40" s="3">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C41" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D41" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3520,8 +3422,8 @@
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
-        <f>AVERAGE(D35:D41)</f>
-        <v>14.8571428571429</v>
+        <f>AVERAGE(D40:D41)</f>
+        <v>11.5</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3531,8 +3433,8 @@
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D11,D17:D29,D35:D41)</f>
-        <v>15.6333333333333</v>
+        <f>AVERAGE(D2:D16,D22:D34,D40:D41)</f>
+        <v>15.5666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -3542,549 +3444,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F47"/>
-  <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
-    <col min="4" max="4" width="12.625"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1">
-        <v>4</v>
-      </c>
-      <c r="D13" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1">
-        <v>5</v>
-      </c>
-      <c r="D14" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1">
-        <v>5</v>
-      </c>
-      <c r="D15" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1">
-        <f>AVERAGE(D2:D15)</f>
-        <v>14.9285714285714</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="2">
-        <v>2</v>
-      </c>
-      <c r="D21" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="2">
-        <v>2</v>
-      </c>
-      <c r="D22" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="2">
-        <v>2</v>
-      </c>
-      <c r="D23" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="2">
-        <v>2</v>
-      </c>
-      <c r="D24" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="2">
-        <v>3</v>
-      </c>
-      <c r="D25" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="2">
-        <v>4</v>
-      </c>
-      <c r="D26" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="2">
-        <v>4</v>
-      </c>
-      <c r="D27" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="2">
-        <v>4</v>
-      </c>
-      <c r="D28" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="2">
-        <v>5</v>
-      </c>
-      <c r="D29" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="2">
-        <v>5</v>
-      </c>
-      <c r="D30" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="2">
-        <v>5</v>
-      </c>
-      <c r="D31" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="2">
-        <v>6</v>
-      </c>
-      <c r="D32" s="2">
-        <v>12</v>
-      </c>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="2">
-        <v>7</v>
-      </c>
-      <c r="D33" s="2">
-        <v>12</v>
-      </c>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2">
-        <f>AVERAGE(D21:D33)</f>
-        <v>12.6923076923077</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="3">
-        <v>3</v>
-      </c>
-      <c r="D39" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" s="3">
-        <v>5</v>
-      </c>
-      <c r="D40" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="3">
-        <v>7</v>
-      </c>
-      <c r="D41" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3">
-        <f>AVERAGE(D39:D41)</f>
-        <v>12.3333333333333</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4">
-        <f>AVERAGE(D2:D15,D21:D33,D39:D41)</f>
-        <v>13.7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D40"/>
@@ -4124,7 +3483,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -4135,7 +3494,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -4146,7 +3505,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -4157,7 +3516,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -4257,7 +3616,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2">
         <v>3</v>
@@ -4279,7 +3638,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2">
         <v>3</v>
@@ -4290,7 +3649,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2">
         <v>4</v>
@@ -4301,7 +3660,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2">
         <v>4</v>
@@ -4312,7 +3671,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" s="2">
         <v>4</v>
@@ -4323,7 +3682,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" s="2">
         <v>5</v>
@@ -4347,7 +3706,7 @@
         <v>15</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C27" s="2">
         <f>AVERAGE(C15:C24)</f>
@@ -4356,7 +3715,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B30" s="3">
         <v>4</v>
@@ -4367,7 +3726,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B31" s="3">
         <v>4</v>
@@ -4378,7 +3737,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="3" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B32" s="3">
         <v>5</v>
@@ -4389,7 +3748,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B33" s="3">
         <v>6</v>
@@ -4400,7 +3759,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B34" s="3">
         <v>8</v>
@@ -4436,7 +3795,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C40" s="4">
         <f>AVERAGE(C2:C9,C15:C24,C30:C34)</f>
@@ -4447,12 +3806,12 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C12 C40" formulaRange="1"/>
+    <ignoredError sqref="C40 C12" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D32"/>
@@ -4481,7 +3840,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -4492,7 +3851,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -4503,7 +3862,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -4514,7 +3873,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -4525,7 +3884,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -4536,7 +3895,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -4570,7 +3929,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
@@ -4581,7 +3940,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
@@ -4592,7 +3951,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B15" s="2">
         <v>4</v>
@@ -4603,7 +3962,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="B16" s="2">
         <v>4</v>
@@ -4614,7 +3973,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
@@ -4638,7 +3997,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2">
         <f>AVERAGE(C13:C17)</f>
@@ -4647,7 +4006,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B23" s="3">
         <v>2</v>
@@ -4658,7 +4017,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="B24" s="3">
         <v>4</v>
@@ -4669,7 +4028,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="B25" s="3">
         <v>4</v>
@@ -4680,7 +4039,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B26" s="3">
         <v>7</v>
@@ -4716,7 +4075,7 @@
         <v>38</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C7,C13:C17,C23:C26)</f>
@@ -4729,7 +4088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D35"/>
@@ -4758,7 +4117,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -4769,7 +4128,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -4780,7 +4139,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -4791,7 +4150,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -4802,7 +4161,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -4813,7 +4172,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -4824,7 +4183,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -4835,7 +4194,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
@@ -4846,7 +4205,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B10" s="1">
         <v>4</v>
@@ -4857,7 +4216,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -4891,7 +4250,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
@@ -4902,7 +4261,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2">
         <v>3</v>
@@ -4913,7 +4272,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
@@ -4924,7 +4283,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="B20" s="2">
         <v>4</v>
@@ -4935,7 +4294,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2">
         <v>5</v>
@@ -4946,7 +4305,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="B22" s="2">
         <v>5</v>
@@ -4970,7 +4329,7 @@
         <v>15</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C25" s="2">
         <f>AVERAGE(C17:C22)</f>
@@ -4979,7 +4338,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="B28" s="3">
         <v>4</v>
@@ -4990,7 +4349,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="B29" s="3">
         <v>5</v>
@@ -5026,7 +4385,7 @@
         <v>38</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="C35" s="4">
         <f>AVERAGE(C2:C11,C17:C22,C28:C29)</f>
@@ -5039,7 +4398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D30"/>
@@ -5068,7 +4427,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -5079,7 +4438,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -5090,7 +4449,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -5101,7 +4460,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -5112,7 +4471,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
@@ -5146,7 +4505,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
@@ -5157,7 +4516,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B13" s="2">
         <v>3</v>
@@ -5168,7 +4527,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B14" s="2">
         <v>3</v>
@@ -5179,7 +4538,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B15" s="2">
         <v>4</v>
@@ -5190,7 +4549,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B16" s="2">
         <v>4</v>
@@ -5201,7 +4560,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
@@ -5212,7 +4571,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B18" s="2">
         <v>5</v>
@@ -5236,7 +4595,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C21" s="2">
         <f>AVERAGE(C12:C18)</f>
@@ -5245,13 +4604,13 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5280,7 +4639,7 @@
         <v>38</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="C30" s="4">
         <f>AVERAGE(C2:C6,C12:C18)</f>

--- a/src/utils/sxsyzlzq/friends/laodu/zz_ld_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/laodu/zz_ld_level.xlsx
@@ -4,17 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10380" windowHeight="12015" activeTab="3"/>
+    <workbookView windowWidth="14685" windowHeight="10800" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="白处尊" sheetId="3" r:id="rId1"/>
     <sheet name="萨维丽娅" sheetId="1" r:id="rId2"/>
     <sheet name="亚芬戴克斯" sheetId="2" r:id="rId3"/>
-    <sheet name="迅" sheetId="9" r:id="rId4"/>
+    <sheet name="梅" sheetId="9" r:id="rId4"/>
     <sheet name="帝国" sheetId="5" r:id="rId5"/>
     <sheet name="港口" sheetId="6" r:id="rId6"/>
     <sheet name="禅意" sheetId="7" r:id="rId7"/>
-    <sheet name="蛮石" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="72">
   <si>
     <t>名称</t>
   </si>
@@ -57,25 +56,28 @@
     <t>圣殿卫士</t>
   </si>
   <si>
+    <t>修女</t>
+  </si>
+  <si>
     <t>民兵队长</t>
   </si>
   <si>
     <t>连击</t>
   </si>
   <si>
-    <t>盾甲禁卫</t>
-  </si>
-  <si>
     <t>圣殿弩手</t>
   </si>
   <si>
     <t>执剑道者</t>
   </si>
   <si>
+    <t>龟族僧人</t>
+  </si>
+  <si>
     <t>增援战线</t>
   </si>
   <si>
-    <t>龟族僧人</t>
+    <t>萌化术</t>
   </si>
   <si>
     <t>光明惩戒</t>
@@ -93,87 +95,90 @@
     <t>紫色</t>
   </si>
   <si>
+    <t>传记·钢铁守卫</t>
+  </si>
+  <si>
     <t>圣殿御卫</t>
   </si>
   <si>
     <t>圣殿骑士</t>
   </si>
   <si>
+    <t>白袍主教</t>
+  </si>
+  <si>
     <t>驱魔道人</t>
   </si>
   <si>
-    <t>白袍主教</t>
-  </si>
-  <si>
     <t>扫叶僧</t>
   </si>
   <si>
-    <t>边境高墙</t>
-  </si>
-  <si>
     <t>御风武者</t>
   </si>
   <si>
+    <t>夺取阵地</t>
+  </si>
+  <si>
+    <t>禁卫百夫长</t>
+  </si>
+  <si>
+    <t>万物之灵</t>
+  </si>
+  <si>
+    <t>紫色卡等：</t>
+  </si>
+  <si>
+    <t>春花使者·卡洛琳</t>
+  </si>
+  <si>
+    <t>橙色</t>
+  </si>
+  <si>
+    <t>明日香·露娜</t>
+  </si>
+  <si>
+    <t>永恒之王·莱哈特</t>
+  </si>
+  <si>
+    <t>武圣·云长</t>
+  </si>
+  <si>
+    <t>橙色卡等：</t>
+  </si>
+  <si>
+    <t>总计：</t>
+  </si>
+  <si>
+    <t>心灵黑洞</t>
+  </si>
+  <si>
+    <t>狡诈学徒</t>
+  </si>
+  <si>
+    <t>黑夜突袭</t>
+  </si>
+  <si>
+    <t>热血矿工</t>
+  </si>
+  <si>
+    <t>酗酒醉汉</t>
+  </si>
+  <si>
+    <t>海燕精卫</t>
+  </si>
+  <si>
     <t>召集护卫</t>
   </si>
   <si>
-    <t>夺取阵地</t>
-  </si>
-  <si>
-    <t>禁卫百夫长</t>
-  </si>
-  <si>
-    <t>万物之灵</t>
-  </si>
-  <si>
-    <t>紫色卡等：</t>
-  </si>
-  <si>
-    <t>春花使者·卡洛琳</t>
-  </si>
-  <si>
-    <t>橙色</t>
-  </si>
-  <si>
-    <t>明日香·露娜</t>
-  </si>
-  <si>
-    <t>永恒之王·莱哈特</t>
+    <t>黑金诈术师</t>
+  </si>
+  <si>
+    <t>蒙面侠客·翔</t>
   </si>
   <si>
     <t>白袍·伊恩</t>
   </si>
   <si>
-    <t>武圣·云长</t>
-  </si>
-  <si>
-    <t>橙色卡等：</t>
-  </si>
-  <si>
-    <t>总计：</t>
-  </si>
-  <si>
-    <t>心灵黑洞</t>
-  </si>
-  <si>
-    <t>狡诈学徒</t>
-  </si>
-  <si>
-    <t>黑夜突袭</t>
-  </si>
-  <si>
-    <t>热血矿工</t>
-  </si>
-  <si>
-    <t>海燕精卫</t>
-  </si>
-  <si>
-    <t>黑金诈术师</t>
-  </si>
-  <si>
-    <t>蒙面侠客·翔</t>
-  </si>
-  <si>
     <t>黑道圣徒·梅森</t>
   </si>
   <si>
@@ -189,28 +194,10 @@
     <t>奴役黑猿</t>
   </si>
   <si>
-    <t>樱花·艾希尔</t>
-  </si>
-  <si>
     <t>百变魔牌·梅基</t>
   </si>
   <si>
-    <t>势如破竹</t>
-  </si>
-  <si>
-    <t>拒马</t>
-  </si>
-  <si>
-    <t>苦行武僧</t>
-  </si>
-  <si>
-    <t>蓄力射手</t>
-  </si>
-  <si>
-    <t>迅捷长矛手</t>
-  </si>
-  <si>
-    <t>叶幻师</t>
+    <t>旅行背包</t>
   </si>
   <si>
     <t>铁山靠</t>
@@ -219,36 +206,15 @@
     <t>风卷残云</t>
   </si>
   <si>
-    <t>强行捕猎</t>
-  </si>
-  <si>
-    <t>无畏猎户</t>
-  </si>
-  <si>
-    <t>地洞巨獾</t>
-  </si>
-  <si>
-    <t>活力仙人掌</t>
-  </si>
-  <si>
-    <t>飞斧狂人</t>
-  </si>
-  <si>
-    <t>饥蛮巨汉</t>
+    <t>冲锋装备</t>
   </si>
   <si>
     <t>泰山之力</t>
   </si>
   <si>
-    <t>飞斧女豪</t>
-  </si>
-  <si>
     <t>上宝沁金耙</t>
   </si>
   <si>
-    <t>许愿神树</t>
-  </si>
-  <si>
     <t>圣枪·卡洛琳</t>
   </si>
   <si>
@@ -270,9 +236,6 @@
     <t>花剑绅士·翔</t>
   </si>
   <si>
-    <t>赤影·艾希尔</t>
-  </si>
-  <si>
     <t>魔卡幻术师·梅基</t>
   </si>
   <si>
@@ -285,19 +248,7 @@
     <t>悟能禅杖</t>
   </si>
   <si>
-    <t>长生不老树</t>
-  </si>
-  <si>
     <t>隐秘卡等：</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>蛮石卡等：</t>
   </si>
 </sst>
 </file>
@@ -1273,8 +1224,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1347,15 +1298,15 @@
         <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -1364,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1378,7 +1329,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1434,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1445,10 +1396,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="1">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1459,77 +1410,77 @@
         <v>5</v>
       </c>
       <c r="C13" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1">
-        <f>AVERAGE(D2:D13)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
-        <v>12</v>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1">
+        <f>AVERAGE(D2:D15)</f>
+        <v>17.7142857142857</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1537,13 +1488,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1551,10 +1502,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="2">
         <v>20</v>
@@ -1565,13 +1516,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24" s="2">
         <v>3</v>
       </c>
       <c r="D24" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1579,13 +1530,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25" s="2">
         <v>3</v>
       </c>
       <c r="D25" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1593,13 +1544,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26" s="2">
         <v>3</v>
       </c>
       <c r="D26" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1607,10 +1558,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" s="2">
         <v>19</v>
@@ -1621,13 +1572,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C28" s="2">
         <v>4</v>
       </c>
       <c r="D28" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1635,7 +1586,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C29" s="2">
         <v>4</v>
@@ -1646,38 +1597,46 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="2">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="2">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2">
         <v>18</v>
       </c>
-      <c r="C30" s="2">
-        <v>5</v>
-      </c>
-      <c r="D30" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="2" t="s">
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="2">
-        <v>5</v>
-      </c>
-      <c r="D31" s="2">
+      <c r="B32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="2">
+        <v>5</v>
+      </c>
+      <c r="D32" s="2">
         <v>12</v>
       </c>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2"/>
@@ -1686,35 +1645,27 @@
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="2" t="s">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2">
-        <f>AVERAGE(D19:D31)</f>
-        <v>16.5384615384615</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="3">
-        <v>4</v>
-      </c>
-      <c r="D37" s="3">
-        <v>18</v>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2">
+        <f>AVERAGE(D21:D32)</f>
+        <v>16.8333333333333</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>32</v>
@@ -1723,40 +1674,40 @@
         <v>4</v>
       </c>
       <c r="D38" s="3">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C39" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" s="3">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C40" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D40" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>32</v>
@@ -1782,26 +1733,26 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
-        <f>AVERAGE(D37:D41)</f>
-        <v>15.6</v>
+        <f>AVERAGE(D38:D41)</f>
+        <v>16.25</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D13,D19:D31,D37:D41)</f>
-        <v>17.3666666666667</v>
+        <f>AVERAGE(D2:D15,D21:D32,D38:D41)</f>
+        <v>17.1666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -1817,7 +1768,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1856,7 +1807,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -1865,12 +1816,12 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -1898,7 +1849,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -1907,12 +1858,12 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -1921,12 +1872,12 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -1935,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1954,7 +1905,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -1968,7 +1919,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -1977,18 +1928,18 @@
         <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" s="1">
         <v>16</v>
@@ -1996,7 +1947,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
@@ -2005,14 +1956,22 @@
         <v>5</v>
       </c>
       <c r="D13" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
@@ -2021,83 +1980,75 @@
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1">
-        <f>AVERAGE(D2:D13)</f>
-        <v>17.4166666666667</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2">
-        <v>14</v>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1">
+        <f>AVERAGE(D2:D14)</f>
+        <v>17.8461538461538</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
       </c>
       <c r="D20" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" s="2">
         <v>2</v>
       </c>
       <c r="D22" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="2">
         <v>20</v>
@@ -2108,49 +2059,49 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24" s="2">
         <v>3</v>
       </c>
       <c r="D24" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25" s="2">
         <v>3</v>
       </c>
       <c r="D25" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26" s="2">
         <v>4</v>
       </c>
       <c r="D26" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27" s="2">
         <v>4</v>
@@ -2164,7 +2115,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C28" s="2">
         <v>4</v>
@@ -2178,7 +2129,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C29" s="2">
         <v>5</v>
@@ -2202,20 +2153,20 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2">
-        <f>AVERAGE(D19:D29)</f>
-        <v>16.1818181818182</v>
+        <f>AVERAGE(D20:D29)</f>
+        <v>17.2</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>32</v>
@@ -2224,7 +2175,7 @@
         <v>2</v>
       </c>
       <c r="D35" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2238,7 +2189,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2266,12 +2217,12 @@
         <v>5</v>
       </c>
       <c r="D38" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>32</v>
@@ -2285,7 +2236,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>32</v>
@@ -2299,7 +2250,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>32</v>
@@ -2325,26 +2276,26 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D35:D41)</f>
-        <v>15</v>
+        <v>15.4285714285714</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D13,D19:D29,D35:D41)</f>
-        <v>16.4</v>
+        <f>AVERAGE(D2:D14,D20:D29,D35:D41)</f>
+        <v>17.0666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -2359,8 +2310,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2399,7 +2350,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -2408,12 +2359,12 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -2427,7 +2378,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -2436,12 +2387,12 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -2450,7 +2401,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2469,7 +2420,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -2483,7 +2434,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -2492,12 +2443,12 @@
         <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -2511,23 +2462,31 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
@@ -2536,86 +2495,78 @@
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1">
-        <f>AVERAGE(D2:D11)</f>
+      <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>14</v>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1">
+        <f>AVERAGE(D2:D12)</f>
+        <v>17.5454545454545</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
       </c>
       <c r="D19" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" s="2">
         <v>2</v>
       </c>
       <c r="D20" s="2">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="2">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2623,27 +2574,27 @@
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" s="2">
         <v>3</v>
       </c>
       <c r="D22" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2651,80 +2602,88 @@
         <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24" s="2">
         <v>4</v>
       </c>
       <c r="D24" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="2">
-        <v>4</v>
-      </c>
-      <c r="D25" s="2">
-        <v>13</v>
-      </c>
-      <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26" s="2">
         <v>4</v>
       </c>
       <c r="D26" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27" s="2">
         <v>4</v>
       </c>
       <c r="D27" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2">
+        <v>13</v>
+      </c>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="2">
+        <v>5</v>
+      </c>
+      <c r="D29" s="2">
         <v>18</v>
       </c>
-      <c r="C28" s="2">
-        <v>5</v>
-      </c>
-      <c r="D28" s="2">
-        <v>18</v>
-      </c>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2"/>
@@ -2733,49 +2692,41 @@
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="2" t="s">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2">
-        <f>AVERAGE(D17:D28)</f>
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="3">
-        <v>2</v>
-      </c>
-      <c r="D34" s="3">
-        <v>15</v>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2">
+        <f>AVERAGE(D18:D29)</f>
+        <v>16.3333333333333</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C35" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>32</v>
@@ -2784,12 +2735,12 @@
         <v>4</v>
       </c>
       <c r="D36" s="3">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>32</v>
@@ -2803,7 +2754,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>32</v>
@@ -2826,12 +2777,12 @@
         <v>5</v>
       </c>
       <c r="D39" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>32</v>
@@ -2845,7 +2796,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>32</v>
@@ -2871,26 +2822,26 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
-        <f>AVERAGE(D34:D41)</f>
-        <v>13.875</v>
+        <f>AVERAGE(D35:D41)</f>
+        <v>14.5714285714286</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D11,D17:D28,D34:D41)</f>
-        <v>15.5666666666667</v>
+        <f>AVERAGE(D2:D12,D18:D29,D35:D41)</f>
+        <v>16.3666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -2906,7 +2857,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2931,35 +2882,35 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -2968,12 +2919,12 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -2982,26 +2933,26 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -3010,12 +2961,12 @@
         <v>3</v>
       </c>
       <c r="D7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -3024,7 +2975,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3043,7 +2994,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -3052,12 +3003,12 @@
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -3066,40 +3017,40 @@
         <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>5</v>
@@ -3108,12 +3059,12 @@
         <v>4</v>
       </c>
       <c r="D14" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>5</v>
@@ -3122,28 +3073,36 @@
         <v>4</v>
       </c>
       <c r="D15" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1"/>
@@ -3152,30 +3111,22 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1">
-        <f>AVERAGE(D2:D16)</f>
-        <v>16.2666666666667</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="2">
-        <v>2</v>
-      </c>
-      <c r="D22" s="2">
-        <v>16</v>
+      <c r="B20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1">
+        <f>AVERAGE(D2:D17)</f>
+        <v>16.625</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3183,10 +3134,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="2">
         <v>20</v>
@@ -3194,188 +3145,187 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24" s="2">
         <v>3</v>
       </c>
       <c r="D24" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25" s="2">
         <v>3</v>
       </c>
       <c r="D25" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26" s="2">
         <v>3</v>
       </c>
       <c r="D26" s="2">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" s="2">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C28" s="2">
         <v>4</v>
       </c>
       <c r="D28" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C29" s="2">
         <v>4</v>
       </c>
       <c r="D29" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C30" s="2">
         <v>4</v>
       </c>
       <c r="D30" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="2">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2">
         <v>18</v>
       </c>
-      <c r="C31" s="2">
-        <v>4</v>
-      </c>
-      <c r="D31" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C32" s="2">
         <v>5</v>
       </c>
       <c r="D32" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="2">
-        <v>5</v>
-      </c>
-      <c r="D33" s="2">
         <v>12</v>
       </c>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="2">
-        <v>5</v>
-      </c>
-      <c r="D34" s="2">
-        <v>10</v>
-      </c>
-      <c r="F34" s="5"/>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="A35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2">
-        <f>AVERAGE(D22:D34)</f>
-        <v>15.3846153846154</v>
+      <c r="D35" s="2">
+        <f>AVERAGE(D23:D32)</f>
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="3">
+        <v>4</v>
+      </c>
+      <c r="D38" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="3">
+        <v>4</v>
+      </c>
+      <c r="D39" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>32</v>
@@ -3389,7 +3339,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>32</v>
@@ -3398,7 +3348,7 @@
         <v>5</v>
       </c>
       <c r="D41" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3415,26 +3365,26 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
-        <f>AVERAGE(D40:D41)</f>
-        <v>11.5</v>
+        <f>AVERAGE(D38:D41)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D16,D22:D34,D40:D41)</f>
-        <v>15.5666666666667</v>
+        <f>AVERAGE(D2:D17,D23:D32,D38:D41)</f>
+        <v>16.6333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -3446,10 +3396,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3483,51 +3433,51 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -3538,88 +3488,88 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
       </c>
       <c r="C9" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="1">
-        <f>AVERAGE(C2:C9)</f>
-        <v>18.875</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>14</v>
-      </c>
+      <c r="C13" s="1">
+        <f>AVERAGE(C2:C10)</f>
+        <v>18.5555555555556</v>
+      </c>
+      <c r="D13" s="2"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
       </c>
       <c r="C16" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" s="2">
         <v>20</v>
@@ -3633,40 +3583,40 @@
         <v>3</v>
       </c>
       <c r="C19" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2">
         <v>3</v>
       </c>
       <c r="C20" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="B21" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2">
         <v>4</v>
       </c>
       <c r="C22" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3677,24 +3627,30 @@
         <v>4</v>
       </c>
       <c r="C23" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="2">
+        <v>4</v>
+      </c>
+      <c r="C24" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="2">
-        <v>5</v>
-      </c>
-      <c r="C24" s="2">
+      <c r="B25" s="2">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2"/>
@@ -3702,76 +3658,76 @@
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="2">
-        <f>AVERAGE(C15:C24)</f>
-        <v>15.7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="3">
-        <v>4</v>
-      </c>
-      <c r="C30" s="3">
-        <v>18</v>
+      <c r="C28" s="2">
+        <f>AVERAGE(C16:C25)</f>
+        <v>16.3</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B31" s="3">
         <v>4</v>
       </c>
       <c r="C31" s="3">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="3" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B32" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32" s="3">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B33" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B34" s="3">
+        <v>6</v>
+      </c>
+      <c r="C34" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="3">
         <v>8</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C35" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="3"/>
@@ -3779,34 +3735,39 @@
       <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="3" t="s">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="3">
+        <f>AVERAGE(C31:C35)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="3">
-        <f>AVERAGE(C30:C34)</f>
-        <v>15.6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="4">
-        <f>AVERAGE(C2:C9,C15:C24,C30:C34)</f>
-        <v>16.7826086956522</v>
+      <c r="B41" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="4">
+        <f>AVERAGE(C2:C10,C16:C25,C31:C35)</f>
+        <v>17.0833333333333</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C40 C12" formulaRange="1"/>
+    <ignoredError sqref="C13 C41" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3817,7 +3778,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3840,18 +3801,18 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -3862,40 +3823,40 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -3905,87 +3866,93 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1">
-        <f>AVERAGE(C2:C7)</f>
-        <v>15.6666666666667</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>18</v>
-      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1">
+        <f>AVERAGE(C2:C8)</f>
+        <v>16.5714285714286</v>
+      </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
       </c>
       <c r="C14" s="2">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B15" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15" s="2">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B16" s="2">
         <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2"/>
@@ -3993,42 +3960,36 @@
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="2">
-        <f>AVERAGE(C13:C17)</f>
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="3">
-        <v>2</v>
-      </c>
-      <c r="C23" s="3">
-        <v>15</v>
+      <c r="C21" s="2">
+        <f>AVERAGE(C14:C18)</f>
+        <v>14.4</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B24" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C24" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B25" s="3">
         <v>4</v>
@@ -4039,7 +4000,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B26" s="3">
         <v>7</v>
@@ -4060,26 +4021,26 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="3">
-        <f>AVERAGE(C23:C26)</f>
-        <v>12.25</v>
+        <f>AVERAGE(C24:C26)</f>
+        <v>12.6666666666667</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C32" s="4">
-        <f>AVERAGE(C2:C7,C13:C17,C23:C26)</f>
-        <v>14.0666666666667</v>
+        <f>AVERAGE(C2:C8,C14:C18,C24:C26)</f>
+        <v>15.0666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -4091,10 +4052,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4117,29 +4078,29 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -4150,500 +4111,213 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
         <v>13</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1">
         <v>4</v>
       </c>
       <c r="C10" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="1">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1">
-        <v>11</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="1">
-        <f>AVERAGE(C2:C11)</f>
-        <v>16.5</v>
-      </c>
-      <c r="D14" s="2"/>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1">
+        <f>AVERAGE(C2:C10)</f>
+        <v>15.2222222222222</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
       </c>
       <c r="C17" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
       </c>
       <c r="C19" s="2">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="2">
-        <v>5</v>
-      </c>
-      <c r="C21" s="2">
-        <v>12</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="2">
-        <v>5</v>
-      </c>
-      <c r="C22" s="2">
-        <v>10</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="A23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="2">
-        <f>AVERAGE(C17:C22)</f>
-        <v>15.5</v>
-      </c>
+      <c r="C23" s="2">
+        <f>AVERAGE(C16:C20)</f>
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="3">
-        <v>4</v>
-      </c>
-      <c r="C28" s="3">
-        <v>11</v>
-      </c>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="3">
-        <v>5</v>
+        <v>16</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C29" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+        <f>AVERAGE(C26:C26)</f>
+        <v>11</v>
+      </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="3" t="s">
+      <c r="A32" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="3">
-        <f>AVERAGE(C28:C29)</f>
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="4">
-        <f>AVERAGE(C2:C11,C17:C22,C28:C29)</f>
-        <v>15.6111111111111</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1">
-        <f>AVERAGE(C2:C6)</f>
-        <v>15.8</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="2">
-        <v>3</v>
-      </c>
-      <c r="C13" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="2">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="2">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="2">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="2">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="2">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="2">
-        <f>AVERAGE(C12:C18)</f>
-        <v>15.2857142857143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" s="4">
-        <f>AVERAGE(C2:C6,C12:C18)</f>
-        <v>15.5</v>
+      <c r="B32" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="4">
+        <f>AVERAGE(C2:C10,C16:C20,C26:C26)</f>
+        <v>15.4666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/laodu/zz_ld_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/laodu/zz_ld_level.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18525" windowHeight="12255" activeTab="3"/>
+    <workbookView windowWidth="18525" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="帝国" sheetId="5" r:id="rId1"/>
-    <sheet name="港口" sheetId="6" r:id="rId2"/>
-    <sheet name="禅意" sheetId="7" r:id="rId3"/>
-    <sheet name="蛮石" sheetId="10" r:id="rId4"/>
+    <sheet name="蛮石" sheetId="10" r:id="rId2"/>
+    <sheet name="港口" sheetId="6" r:id="rId3"/>
+    <sheet name="禅意" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -131,6 +131,51 @@
     <t>帝国卡等：</t>
   </si>
   <si>
+    <t>愚笨鲸头鹅</t>
+  </si>
+  <si>
+    <t>势如破竹</t>
+  </si>
+  <si>
+    <t>蓄力射手</t>
+  </si>
+  <si>
+    <t>蛮石穿山甲</t>
+  </si>
+  <si>
+    <t>迅捷长矛手</t>
+  </si>
+  <si>
+    <t>天降碎石</t>
+  </si>
+  <si>
+    <t>强行捕猎</t>
+  </si>
+  <si>
+    <t>无畏猎户</t>
+  </si>
+  <si>
+    <t>地洞巨獾</t>
+  </si>
+  <si>
+    <t>活力仙人掌</t>
+  </si>
+  <si>
+    <t>飞斧狂人</t>
+  </si>
+  <si>
+    <t>石斧头领</t>
+  </si>
+  <si>
+    <t>飞斧女豪</t>
+  </si>
+  <si>
+    <t>血饮烈斧·凯</t>
+  </si>
+  <si>
+    <t>蛮石卡等：</t>
+  </si>
+  <si>
     <t>心灵黑洞</t>
   </si>
   <si>
@@ -231,51 +276,6 @@
   </si>
   <si>
     <t>禅意卡等：</t>
-  </si>
-  <si>
-    <t>愚笨鲸头鹅</t>
-  </si>
-  <si>
-    <t>势如破竹</t>
-  </si>
-  <si>
-    <t>蓄力射手</t>
-  </si>
-  <si>
-    <t>蛮石穿山甲</t>
-  </si>
-  <si>
-    <t>迅捷长矛手</t>
-  </si>
-  <si>
-    <t>天降碎石</t>
-  </si>
-  <si>
-    <t>强行捕猎</t>
-  </si>
-  <si>
-    <t>无畏猎户</t>
-  </si>
-  <si>
-    <t>地洞巨獾</t>
-  </si>
-  <si>
-    <t>活力仙人掌</t>
-  </si>
-  <si>
-    <t>飞斧狂人</t>
-  </si>
-  <si>
-    <t>石斧头领</t>
-  </si>
-  <si>
-    <t>飞斧女豪</t>
-  </si>
-  <si>
-    <t>血饮烈斧·凯</t>
-  </si>
-  <si>
-    <t>蛮石卡等：</t>
   </si>
 </sst>
 </file>
@@ -1244,8 +1244,8 @@
   <sheetPr/>
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1652,6 +1652,289 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1">
+        <f>AVERAGE(C2:C9)</f>
+        <v>16</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" customFormat="1"/>
+    <row r="14" customFormat="1"/>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="2">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="2">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="2">
+        <f>AVERAGE(C15:C20)</f>
+        <v>16.3333333333333</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1"/>
+    <row r="25" customFormat="1"/>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="4">
+        <v>5</v>
+      </c>
+      <c r="C26" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="3">
+        <f>AVERAGE(C26:C26)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1"/>
+    <row r="31" customFormat="1"/>
+    <row r="32" spans="1:3">
+      <c r="A32" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="5">
+        <f>AVERAGE(C2:C9,C15:C20,C26:C26)</f>
+        <v>15.8666666666667</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D32"/>
@@ -1680,7 +1963,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1691,7 +1974,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1702,7 +1985,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -1713,7 +1996,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -1724,7 +2007,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -1735,7 +2018,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -1746,7 +2029,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -1780,7 +2063,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
@@ -1791,7 +2074,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
@@ -1802,7 +2085,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B16" s="2">
         <v>4</v>
@@ -1813,7 +2096,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
@@ -1824,7 +2107,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
@@ -1857,7 +2140,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B24" s="3">
         <v>2</v>
@@ -1868,7 +2151,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B25" s="3">
         <v>3</v>
@@ -1879,7 +2162,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
@@ -1915,7 +2198,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C32" s="5">
         <f>AVERAGE(C2:C8,C14:C18,C24:C26)</f>
@@ -1928,12 +2211,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
@@ -1957,7 +2240,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -1968,7 +2251,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1979,7 +2262,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -1990,7 +2273,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -2001,7 +2284,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -2012,7 +2295,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -2023,7 +2306,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -2034,7 +2317,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
@@ -2045,7 +2328,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -2056,7 +2339,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -2067,7 +2350,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B12" s="1">
         <v>4</v>
@@ -2078,7 +2361,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B13" s="1">
         <v>4</v>
@@ -2112,7 +2395,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B19" s="2">
         <v>3</v>
@@ -2123,7 +2406,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B20" s="2">
         <v>3</v>
@@ -2134,7 +2417,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B21" s="2">
         <v>3</v>
@@ -2145,7 +2428,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B22" s="2">
         <v>4</v>
@@ -2156,7 +2439,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B23" s="2">
         <v>4</v>
@@ -2167,7 +2450,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B24" s="2">
         <v>4</v>
@@ -2178,7 +2461,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B25" s="2">
         <v>4</v>
@@ -2189,7 +2472,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B26" s="2">
         <v>4</v>
@@ -2200,7 +2483,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B27" s="2">
         <v>5</v>
@@ -2233,7 +2516,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B33" s="4">
         <v>3</v>
@@ -2244,7 +2527,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="B34" s="3">
         <v>4</v>
@@ -2255,7 +2538,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B35" s="3">
         <v>5</v>
@@ -2291,294 +2574,11 @@
         <v>31</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C41" s="5">
         <f>AVERAGE(C2:C13,C19:C27,C33:C35)</f>
         <v>14.9583333333333</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D32"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="17.625" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="1">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1">
-        <f>AVERAGE(C2:C9)</f>
-        <v>16</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" customFormat="1"/>
-    <row r="14" customFormat="1"/>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="2">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="2">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="2">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="2">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="2">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="2">
-        <f>AVERAGE(C15:C20)</f>
-        <v>16.3333333333333</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1"/>
-    <row r="25" customFormat="1"/>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="4">
-        <v>5</v>
-      </c>
-      <c r="C26" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="3">
-        <f>AVERAGE(C26:C26)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1"/>
-    <row r="31" customFormat="1"/>
-    <row r="32" spans="1:3">
-      <c r="A32" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="5">
-        <f>AVERAGE(C2:C9,C15:C20,C26:C26)</f>
-        <v>15.8666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/laodu/zz_ld_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/laodu/zz_ld_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18525" windowHeight="12255"/>
+    <workbookView windowWidth="16020" windowHeight="12015" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="帝国" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
   <si>
     <t>名称</t>
   </si>
@@ -44,9 +44,6 @@
     <t>圣殿斥候</t>
   </si>
   <si>
-    <t>旅行背包</t>
-  </si>
-  <si>
     <t>圣殿卫士</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>增援战线</t>
   </si>
   <si>
-    <t>田园守望者</t>
-  </si>
-  <si>
     <t>光明惩戒</t>
   </si>
   <si>
@@ -86,12 +80,6 @@
     <t>白袍主教</t>
   </si>
   <si>
-    <t>边境高墙</t>
-  </si>
-  <si>
-    <t>冲锋装备</t>
-  </si>
-  <si>
     <t>召集护卫</t>
   </si>
   <si>
@@ -101,9 +89,6 @@
     <t>禁卫百夫长</t>
   </si>
   <si>
-    <t>禁卫指挥官</t>
-  </si>
-  <si>
     <t>紫色卡等：</t>
   </si>
   <si>
@@ -224,9 +209,6 @@
     <t>拒马</t>
   </si>
   <si>
-    <t>太极剑法</t>
-  </si>
-  <si>
     <t>连击</t>
   </si>
   <si>
@@ -254,19 +236,7 @@
     <t>御风武者</t>
   </si>
   <si>
-    <t>墨轩隐士</t>
-  </si>
-  <si>
     <t>泰山之力</t>
-  </si>
-  <si>
-    <t>萌化术</t>
-  </si>
-  <si>
-    <t>万物之灵</t>
-  </si>
-  <si>
-    <t>灵龟神丹</t>
   </si>
   <si>
     <t>悟能禅杖</t>
@@ -912,7 +882,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -920,9 +890,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1242,10 +1209,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="$A21:$XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1282,10 +1249,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1304,7 +1271,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>20</v>
@@ -1326,327 +1293,239 @@
         <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <f>AVERAGE(C2:C7)</f>
+        <v>19.5</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1">
-        <f>AVERAGE(C2:C10)</f>
-        <v>18.3333333333333</v>
-      </c>
-      <c r="D13" s="2"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C20" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="2">
-        <v>3</v>
-      </c>
-      <c r="C21" s="2">
-        <v>16</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="2">
-        <v>3</v>
-      </c>
-      <c r="C22" s="2">
-        <v>14</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="2">
-        <v>3</v>
-      </c>
       <c r="C23" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
+        <f>AVERAGE(C13:C20)</f>
+        <v>18.125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="3">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="3">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3">
         <v>19</v>
       </c>
-      <c r="B24" s="2">
-        <v>3</v>
-      </c>
-      <c r="C24" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="2">
-        <v>4</v>
-      </c>
-      <c r="C25" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="2">
-        <v>4</v>
-      </c>
-      <c r="C26" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="2">
-        <v>5</v>
-      </c>
-      <c r="C27" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2" t="s">
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B29" s="3">
         <v>6</v>
       </c>
-      <c r="C28" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="C29" s="3">
+        <v>17</v>
+      </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="A30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="3">
+        <v>8</v>
+      </c>
+      <c r="C30" s="3">
+        <v>17</v>
+      </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="2">
-        <f>AVERAGE(C16:C28)</f>
-        <v>16.6923076923077</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="3" t="s">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="3">
-        <v>4</v>
-      </c>
-      <c r="C34" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="3" t="s">
+      <c r="C33" s="3">
+        <f>AVERAGE(C26:C30)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="3">
-        <v>4</v>
-      </c>
-      <c r="C35" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="3">
-        <v>5</v>
-      </c>
-      <c r="C36" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="3">
-        <v>6</v>
-      </c>
-      <c r="C37" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="3">
-        <v>8</v>
-      </c>
-      <c r="C38" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="3">
-        <f>AVERAGE(C34:C38)</f>
-        <v>16.4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" s="5">
-        <f>AVERAGE(C2:C10,C16:C28,C34:C38)</f>
-        <v>17.1851851851852</v>
+      <c r="C36" s="4">
+        <f>AVERAGE(C2:C7,C13:C20,C26:C30)</f>
+        <v>18.2631578947368</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C44 C13" formulaRange="1"/>
+    <ignoredError sqref="C10 C36" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1656,8 +1535,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1680,7 +1559,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -1691,7 +1570,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1702,7 +1581,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -1713,7 +1592,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -1724,7 +1603,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -1735,7 +1614,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -1746,7 +1625,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -1757,7 +1636,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
@@ -1778,10 +1657,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1">
         <f>AVERAGE(C2:C9)</f>
@@ -1789,11 +1668,9 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" customFormat="1"/>
-    <row r="14" customFormat="1"/>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
@@ -1804,7 +1681,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
@@ -1815,18 +1692,18 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
       </c>
       <c r="C17" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
@@ -1837,7 +1714,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2">
         <v>5</v>
@@ -1848,7 +1725,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2">
         <v>5</v>
@@ -1869,26 +1746,24 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C23" s="2">
         <f>AVERAGE(C15:C20)</f>
-        <v>16.3333333333333</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1"/>
-    <row r="25" customFormat="1"/>
+        <v>16.5</v>
+      </c>
+    </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="4">
+        <v>41</v>
+      </c>
+      <c r="B26" s="3">
         <v>5</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>12</v>
       </c>
     </row>
@@ -1904,28 +1779,26 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C29" s="3">
         <f>AVERAGE(C26:C26)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="30" customFormat="1"/>
-    <row r="31" customFormat="1"/>
     <row r="32" spans="1:3">
-      <c r="A32" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="5">
+      <c r="A32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="4">
         <f>AVERAGE(C2:C9,C15:C20,C26:C26)</f>
-        <v>15.8666666666667</v>
+        <v>15.9333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -1963,7 +1836,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1974,7 +1847,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1985,7 +1858,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -1996,7 +1869,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -2007,7 +1880,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -2018,7 +1891,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -2029,7 +1902,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -2050,10 +1923,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1">
         <f>AVERAGE(C2:C8)</f>
@@ -2063,7 +1936,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
@@ -2074,7 +1947,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
@@ -2085,7 +1958,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B16" s="2">
         <v>4</v>
@@ -2096,7 +1969,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
@@ -2107,7 +1980,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
@@ -2128,10 +2001,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2">
         <f>AVERAGE(C14:C18)</f>
@@ -2140,7 +2013,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B24" s="3">
         <v>2</v>
@@ -2151,7 +2024,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B25" s="3">
         <v>3</v>
@@ -2162,7 +2035,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
@@ -2183,10 +2056,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C29" s="3">
         <f>AVERAGE(C24:C26)</f>
@@ -2194,13 +2067,13 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="5">
+      <c r="A32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="4">
         <f>AVERAGE(C2:C8,C14:C18,C24:C26)</f>
         <v>15.7333333333333</v>
       </c>
@@ -2214,10 +2087,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2240,7 +2113,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -2251,51 +2124,51 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -2306,40 +2179,40 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
       </c>
       <c r="C9" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B10" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -2350,235 +2223,169 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B12" s="1">
         <v>4</v>
       </c>
       <c r="C12" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="1">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1">
-        <v>12</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="1">
-        <f>AVERAGE(C2:C13)</f>
-        <v>15.5</v>
-      </c>
-      <c r="D16" s="2"/>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1">
+        <f>AVERAGE(C2:C12)</f>
+        <v>15.7272727272727</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="2">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B19" s="2">
         <v>3</v>
       </c>
       <c r="C19" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B20" s="2">
         <v>3</v>
       </c>
       <c r="C20" s="2">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B21" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B22" s="2">
         <v>4</v>
       </c>
       <c r="C22" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="2">
-        <v>4</v>
-      </c>
-      <c r="C23" s="2">
-        <v>14</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="2">
-        <v>4</v>
-      </c>
-      <c r="C24" s="2">
-        <v>14</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="2">
+        <v>9</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="2">
+        <f>AVERAGE(C18:C22)</f>
+        <v>17.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="3">
         <v>4</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C28" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="2">
-        <v>4</v>
-      </c>
-      <c r="C26" s="2">
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="3">
+        <v>5</v>
+      </c>
+      <c r="C29" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" s="2">
-        <v>5</v>
-      </c>
-      <c r="C27" s="2">
+    <row r="30" spans="1:3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="3">
+        <f>AVERAGE(C28:C29)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="2">
-        <f>AVERAGE(C19:C27)</f>
-        <v>15.2222222222222</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" s="4">
-        <v>3</v>
-      </c>
-      <c r="C33" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B34" s="3">
-        <v>4</v>
-      </c>
-      <c r="C34" s="3">
-        <v>12</v>
-      </c>
-    </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35" s="3">
-        <v>5</v>
-      </c>
-      <c r="C35" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="3">
-        <f>AVERAGE(C33:C35)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="5">
-        <f>AVERAGE(C2:C13,C19:C27,C33:C35)</f>
-        <v>14.9583333333333</v>
+      <c r="A35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="4">
+        <f>AVERAGE(C2:C12,C18:C22,C28:C29)</f>
+        <v>15.7777777777778</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/laodu/zz_ld_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/laodu/zz_ld_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16020" windowHeight="12015" activeTab="3"/>
+    <workbookView windowWidth="16260" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="帝国" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="83">
   <si>
     <t>名称</t>
   </si>
@@ -44,6 +44,12 @@
     <t>圣殿斥候</t>
   </si>
   <si>
+    <t>旅行背包</t>
+  </si>
+  <si>
+    <t>重装固守</t>
+  </si>
+  <si>
     <t>圣殿卫士</t>
   </si>
   <si>
@@ -56,6 +62,9 @@
     <t>增援战线</t>
   </si>
   <si>
+    <t>田园守望者</t>
+  </si>
+  <si>
     <t>光明惩戒</t>
   </si>
   <si>
@@ -80,6 +89,12 @@
     <t>白袍主教</t>
   </si>
   <si>
+    <t>边境高墙</t>
+  </si>
+  <si>
+    <t>冲锋装备</t>
+  </si>
+  <si>
     <t>召集护卫</t>
   </si>
   <si>
@@ -89,6 +104,9 @@
     <t>禁卫百夫长</t>
   </si>
   <si>
+    <t>禁卫指挥官</t>
+  </si>
+  <si>
     <t>紫色卡等：</t>
   </si>
   <si>
@@ -206,6 +224,9 @@
     <t>港口卡等：</t>
   </si>
   <si>
+    <t>苦行武僧</t>
+  </si>
+  <si>
     <t>拒马</t>
   </si>
   <si>
@@ -218,6 +239,9 @@
     <t>龟族僧人</t>
   </si>
   <si>
+    <t>叶幻师</t>
+  </si>
+  <si>
     <t>铁山靠</t>
   </si>
   <si>
@@ -230,13 +254,22 @@
     <t>扫叶僧</t>
   </si>
   <si>
-    <t>逍遥琴师</t>
-  </si>
-  <si>
     <t>御风武者</t>
   </si>
   <si>
+    <t>墨轩隐士</t>
+  </si>
+  <si>
     <t>泰山之力</t>
+  </si>
+  <si>
+    <t>猛化术</t>
+  </si>
+  <si>
+    <t>万物之灵</t>
+  </si>
+  <si>
+    <t>神机玄女·轩</t>
   </si>
   <si>
     <t>悟能禅杖</t>
@@ -1209,10 +1242,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="$A21:$XFD21"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1249,10 +1282,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1260,10 +1293,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1271,7 +1304,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
         <v>20</v>
@@ -1282,7 +1315,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
         <v>20</v>
@@ -1293,239 +1326,327 @@
         <v>8</v>
       </c>
       <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C10" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1">
-        <f>AVERAGE(C2:C7)</f>
-        <v>19.5</v>
-      </c>
-      <c r="D10" s="2"/>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2">
-        <v>20</v>
-      </c>
+      <c r="C14" s="1">
+        <f>AVERAGE(C2:C11)</f>
+        <v>18</v>
+      </c>
+      <c r="D14" s="2"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
         <v>16</v>
-      </c>
-      <c r="B18" s="2">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2">
-        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="2">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2">
+      <c r="B21" s="2">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="B22" s="2">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2">
+        <v>4</v>
+      </c>
+      <c r="C26" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2">
         <v>19</v>
       </c>
-      <c r="C23" s="2">
-        <f>AVERAGE(C13:C20)</f>
-        <v>18.125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2">
+        <v>6</v>
+      </c>
+      <c r="C28" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="2">
+        <f>AVERAGE(C17:C28)</f>
+        <v>17.0833333333333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="3">
+        <v>4</v>
+      </c>
+      <c r="C34" s="3">
         <v>20</v>
       </c>
-      <c r="B26" s="3">
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="3">
         <v>4</v>
       </c>
-      <c r="C26" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="3">
-        <v>4</v>
-      </c>
-      <c r="C27" s="3">
+      <c r="C35" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="3">
+    <row r="36" spans="1:3">
+      <c r="A36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="3">
         <v>5</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C36" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="3">
+    <row r="37" spans="1:3">
+      <c r="A37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="3">
         <v>6</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C37" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="3">
+    <row r="38" spans="1:3">
+      <c r="A38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="3">
         <v>8</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C38" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="3">
-        <f>AVERAGE(C26:C30)</f>
+    <row r="39" spans="1:3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="3">
+        <f>AVERAGE(C34:C38)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="4">
-        <f>AVERAGE(C2:C7,C13:C20,C26:C30)</f>
-        <v>18.2631578947368</v>
+    <row r="44" spans="1:3">
+      <c r="A44" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="4">
+        <f>AVERAGE(C2:C11,C17:C28,C34:C38)</f>
+        <v>17.4074074074074</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C10 C36" formulaRange="1"/>
+    <ignoredError sqref="C14" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1535,7 +1656,7 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -1559,7 +1680,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -1570,7 +1691,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1581,7 +1702,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -1592,7 +1713,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -1603,7 +1724,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -1614,7 +1735,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -1625,7 +1746,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -1636,7 +1757,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
@@ -1657,10 +1778,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1">
         <f>AVERAGE(C2:C9)</f>
@@ -1670,7 +1791,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
@@ -1681,7 +1802,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
@@ -1692,7 +1813,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
@@ -1703,7 +1824,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
@@ -1714,7 +1835,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B19" s="2">
         <v>5</v>
@@ -1725,7 +1846,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B20" s="2">
         <v>5</v>
@@ -1746,10 +1867,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C23" s="2">
         <f>AVERAGE(C15:C20)</f>
@@ -1758,7 +1879,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B26" s="3">
         <v>5</v>
@@ -1779,10 +1900,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C29" s="3">
         <f>AVERAGE(C26:C26)</f>
@@ -1791,10 +1912,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C9,C15:C20,C26:C26)</f>
@@ -1812,8 +1933,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1836,18 +1957,18 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1858,7 +1979,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -1869,7 +1990,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -1880,18 +2001,18 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -1902,7 +2023,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -1923,20 +2044,20 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1">
         <f>AVERAGE(C2:C8)</f>
-        <v>17.2857142857143</v>
+        <v>17.5714285714286</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
@@ -1947,7 +2068,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
@@ -1958,7 +2079,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B16" s="2">
         <v>4</v>
@@ -1969,7 +2090,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
@@ -1980,7 +2101,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
@@ -2001,10 +2122,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C21" s="2">
         <f>AVERAGE(C14:C18)</f>
@@ -2013,7 +2134,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B24" s="3">
         <v>2</v>
@@ -2024,7 +2145,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B25" s="3">
         <v>3</v>
@@ -2035,7 +2156,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
@@ -2056,10 +2177,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C29" s="3">
         <f>AVERAGE(C24:C26)</f>
@@ -2068,14 +2189,14 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C8,C14:C18,C24:C26)</f>
-        <v>15.7333333333333</v>
+        <v>15.8666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -2087,10 +2208,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2113,7 +2234,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -2124,51 +2245,51 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -2179,40 +2300,40 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
       </c>
       <c r="C9" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B10" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -2223,74 +2344,74 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B12" s="1">
         <v>4</v>
       </c>
       <c r="C12" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="1">
-        <f>AVERAGE(C2:C12)</f>
-        <v>15.7272727272727</v>
-      </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="2">
-        <v>3</v>
-      </c>
-      <c r="C18" s="2">
-        <v>20</v>
-      </c>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1">
+        <f>AVERAGE(C2:C13)</f>
+        <v>16.3333333333333</v>
+      </c>
+      <c r="D16" s="2"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B19" s="2">
         <v>3</v>
       </c>
       <c r="C19" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B20" s="2">
         <v>3</v>
       </c>
       <c r="C20" s="2">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B21" s="2">
         <v>4</v>
@@ -2301,7 +2422,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B22" s="2">
         <v>4</v>
@@ -2311,81 +2432,136 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="2">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="A24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="2">
+        <v>4</v>
+      </c>
+      <c r="C24" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>19</v>
+        <v>78</v>
+      </c>
+      <c r="B25" s="2">
+        <v>5</v>
       </c>
       <c r="C25" s="2">
-        <f>AVERAGE(C18:C22)</f>
-        <v>17.4</v>
-      </c>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="2">
+        <v>5</v>
+      </c>
+      <c r="C26" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="3">
-        <v>4</v>
-      </c>
-      <c r="C28" s="3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" s="3">
-        <v>5</v>
-      </c>
-      <c r="C29" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="B29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="2">
+        <f>AVERAGE(C19:C26)</f>
+        <v>15.375</v>
+      </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>25</v>
+        <v>79</v>
+      </c>
+      <c r="B32" s="3">
+        <v>4</v>
       </c>
       <c r="C32" s="3">
-        <f>AVERAGE(C28:C29)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="3">
+        <v>4</v>
+      </c>
+      <c r="C33" s="3">
         <v>12</v>
       </c>
     </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="3">
+        <v>5</v>
+      </c>
+      <c r="C34" s="3">
+        <v>12</v>
+      </c>
+    </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="4">
-        <f>AVERAGE(C2:C12,C18:C22,C28:C29)</f>
-        <v>15.7777777777778</v>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="3">
+        <f>AVERAGE(C32:C34)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="4">
+        <f>AVERAGE(C2:C13,C19:C26,C32:C34)</f>
+        <v>15.5652173913043</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/laodu/zz_ld_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/laodu/zz_ld_level.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16260" windowHeight="9000" activeTab="1"/>
+    <workbookView windowWidth="13680" windowHeight="10620" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="帝国" sheetId="5" r:id="rId1"/>
-    <sheet name="蛮石" sheetId="10" r:id="rId2"/>
-    <sheet name="港口" sheetId="6" r:id="rId3"/>
+    <sheet name="港口" sheetId="6" r:id="rId2"/>
+    <sheet name="蛮石" sheetId="10" r:id="rId3"/>
     <sheet name="禅意" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="77">
   <si>
     <t>名称</t>
   </si>
@@ -44,16 +44,10 @@
     <t>圣殿斥候</t>
   </si>
   <si>
-    <t>旅行背包</t>
-  </si>
-  <si>
-    <t>重装固守</t>
-  </si>
-  <si>
     <t>圣殿卫士</t>
   </si>
   <si>
-    <t>民兵队长</t>
+    <t>修女</t>
   </si>
   <si>
     <t>圣殿弩手</t>
@@ -101,6 +95,9 @@
     <t>夺取阵地</t>
   </si>
   <si>
+    <t>炽阳坠落</t>
+  </si>
+  <si>
     <t>禁卫百夫长</t>
   </si>
   <si>
@@ -134,6 +131,51 @@
     <t>帝国卡等：</t>
   </si>
   <si>
+    <t>心灵黑洞</t>
+  </si>
+  <si>
+    <t>狡诈学徒</t>
+  </si>
+  <si>
+    <t>黑夜突袭</t>
+  </si>
+  <si>
+    <t>热血矿工</t>
+  </si>
+  <si>
+    <t>酗酒醉汉</t>
+  </si>
+  <si>
+    <t>魔力风暴</t>
+  </si>
+  <si>
+    <t>海燕精卫</t>
+  </si>
+  <si>
+    <t>海神赐福</t>
+  </si>
+  <si>
+    <t>黑金诈术师</t>
+  </si>
+  <si>
+    <t>在逃重犯</t>
+  </si>
+  <si>
+    <t>奴役黑猿</t>
+  </si>
+  <si>
+    <t>花剑绅士·翔</t>
+  </si>
+  <si>
+    <t>海燕·鲍莉</t>
+  </si>
+  <si>
+    <t>戴维的惊天计谋</t>
+  </si>
+  <si>
+    <t>港口卡等：</t>
+  </si>
+  <si>
     <t>愚笨鲸头鹅</t>
   </si>
   <si>
@@ -179,57 +221,12 @@
     <t>蛮石卡等：</t>
   </si>
   <si>
-    <t>心灵黑洞</t>
-  </si>
-  <si>
-    <t>狡诈学徒</t>
-  </si>
-  <si>
-    <t>黑夜突袭</t>
-  </si>
-  <si>
-    <t>热血矿工</t>
-  </si>
-  <si>
-    <t>酗酒醉汉</t>
-  </si>
-  <si>
-    <t>魔力风暴</t>
-  </si>
-  <si>
-    <t>海燕精卫</t>
-  </si>
-  <si>
-    <t>海神赐福</t>
-  </si>
-  <si>
-    <t>黑金诈术师</t>
-  </si>
-  <si>
-    <t>在逃重犯</t>
-  </si>
-  <si>
-    <t>奴役黑猿</t>
-  </si>
-  <si>
-    <t>花剑绅士·翔</t>
-  </si>
-  <si>
-    <t>海燕·鲍莉</t>
-  </si>
-  <si>
-    <t>魔卡幻术师·梅基</t>
-  </si>
-  <si>
-    <t>港口卡等：</t>
-  </si>
-  <si>
-    <t>苦行武僧</t>
-  </si>
-  <si>
     <t>拒马</t>
   </si>
   <si>
+    <t>飓风术</t>
+  </si>
+  <si>
     <t>连击</t>
   </si>
   <si>
@@ -239,9 +236,6 @@
     <t>龟族僧人</t>
   </si>
   <si>
-    <t>叶幻师</t>
-  </si>
-  <si>
     <t>铁山靠</t>
   </si>
   <si>
@@ -257,19 +251,7 @@
     <t>御风武者</t>
   </si>
   <si>
-    <t>墨轩隐士</t>
-  </si>
-  <si>
     <t>泰山之力</t>
-  </si>
-  <si>
-    <t>猛化术</t>
-  </si>
-  <si>
-    <t>万物之灵</t>
-  </si>
-  <si>
-    <t>神机玄女·轩</t>
   </si>
   <si>
     <t>悟能禅杖</t>
@@ -1242,10 +1224,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1282,10 +1264,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1293,10 +1275,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1304,7 +1286,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>20</v>
@@ -1315,7 +1297,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
         <v>20</v>
@@ -1329,7 +1311,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1337,77 +1319,77 @@
         <v>9</v>
       </c>
       <c r="B8" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="C12" s="1">
+        <f>AVERAGE(C2:C9)</f>
+        <v>19.375</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="1">
-        <f>AVERAGE(C2:C11)</f>
-        <v>18</v>
-      </c>
-      <c r="D14" s="2"/>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>17</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1415,10 +1397,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1426,7 +1408,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="2">
         <v>20</v>
@@ -1440,7 +1422,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1451,7 +1433,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1459,10 +1441,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1470,7 +1452,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" s="2">
         <v>15</v>
@@ -1478,175 +1460,153 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2">
+        <v>6</v>
+      </c>
+      <c r="C26" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="2">
+        <f>AVERAGE(C15:C26)</f>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="3">
         <v>4</v>
       </c>
-      <c r="C26" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="2">
-        <v>5</v>
-      </c>
-      <c r="C27" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="2">
-        <v>6</v>
-      </c>
-      <c r="C28" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2" t="s">
+      <c r="C32" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="3">
+        <v>4</v>
+      </c>
+      <c r="C33" s="3">
         <v>12</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="2">
-        <f>AVERAGE(C17:C28)</f>
-        <v>17.0833333333333</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B34" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C34" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B35" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C35" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B36" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C36" s="3">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="3">
-        <v>6</v>
-      </c>
-      <c r="C37" s="3">
-        <v>17</v>
-      </c>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="3">
-        <v>8</v>
-      </c>
-      <c r="C38" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="3" t="s">
+      <c r="C39" s="3">
+        <f>AVERAGE(C32:C36)</f>
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="3">
-        <f>AVERAGE(C34:C38)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="4" t="s">
+      <c r="B42" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="4">
-        <f>AVERAGE(C2:C11,C17:C28,C34:C38)</f>
-        <v>17.4074074074074</v>
+      <c r="C42" s="4">
+        <f>AVERAGE(C2:C9,C15:C26,C32:C36)</f>
+        <v>18.04</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C14" formulaRange="1"/>
+    <ignoredError sqref="C12" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1656,8 +1616,285 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1">
+        <f>AVERAGE(C2:C8)</f>
+        <v>17.8571428571429</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="2">
+        <f>AVERAGE(C14:C18)</f>
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="3">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="3">
+        <f>AVERAGE(C24:C26)</f>
+        <v>14.3333333333333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="4">
+        <f>AVERAGE(C2:C8,C14:C18,C24:C26)</f>
+        <v>16.3333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1680,7 +1917,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -1691,7 +1928,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1702,7 +1939,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -1713,7 +1950,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -1724,7 +1961,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -1735,7 +1972,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -1746,7 +1983,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -1757,7 +1994,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
@@ -1778,10 +2015,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1">
         <f>AVERAGE(C2:C9)</f>
@@ -1791,18 +2028,18 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
       </c>
       <c r="C15" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
@@ -1813,7 +2050,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
@@ -1824,7 +2061,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
@@ -1835,7 +2072,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B19" s="2">
         <v>5</v>
@@ -1846,7 +2083,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B20" s="2">
         <v>5</v>
@@ -1867,19 +2104,19 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="2">
         <f>AVERAGE(C15:C20)</f>
-        <v>16.5</v>
+        <v>16.6666666666667</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B26" s="3">
         <v>5</v>
@@ -1900,10 +2137,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" s="3">
         <f>AVERAGE(C26:C26)</f>
@@ -1912,291 +2149,14 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C9,C15:C20,C26:C26)</f>
-        <v>15.9333333333333</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D32"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1">
-        <f>AVERAGE(C2:C8)</f>
-        <v>17.5714285714286</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="2">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="2">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="2">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="2">
-        <f>AVERAGE(C14:C18)</f>
-        <v>14.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="3">
-        <v>2</v>
-      </c>
-      <c r="C24" s="3">
         <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="3">
-        <v>3</v>
-      </c>
-      <c r="C25" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="3">
-        <v>4</v>
-      </c>
-      <c r="C26" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="3">
-        <f>AVERAGE(C24:C26)</f>
-        <v>13.6666666666667</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="4">
-        <f>AVERAGE(C2:C8,C14:C18,C24:C26)</f>
-        <v>15.8666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -2208,10 +2168,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A28" sqref="$A28:$XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2234,7 +2194,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -2245,18 +2205,18 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -2267,7 +2227,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -2278,7 +2238,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -2289,7 +2249,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -2300,7 +2260,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -2311,29 +2271,29 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
       </c>
       <c r="C9" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
       </c>
       <c r="C10" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -2344,7 +2304,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12" s="1">
         <v>4</v>
@@ -2355,7 +2315,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B13" s="1">
         <v>4</v>
@@ -2376,20 +2336,20 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1">
         <f>AVERAGE(C2:C13)</f>
-        <v>16.3333333333333</v>
+        <v>15.75</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B19" s="2">
         <v>3</v>
@@ -2400,7 +2360,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B20" s="2">
         <v>3</v>
@@ -2411,7 +2371,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B21" s="2">
         <v>4</v>
@@ -2422,7 +2382,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B22" s="2">
         <v>4</v>
@@ -2432,136 +2392,81 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="2">
-        <v>4</v>
-      </c>
-      <c r="C23" s="2">
-        <v>14</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="2">
-        <v>4</v>
-      </c>
-      <c r="C24" s="2">
-        <v>12</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="2">
+        <v>10</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2">
+        <f>AVERAGE(C19:C22)</f>
+        <v>18.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="3">
+        <v>4</v>
+      </c>
+      <c r="C28" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="3">
         <v>5</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C29" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="2">
-        <v>5</v>
-      </c>
-      <c r="C26" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="2">
-        <f>AVERAGE(C19:C26)</f>
-        <v>15.375</v>
-      </c>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" s="3">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C32" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="3">
-        <v>4</v>
-      </c>
-      <c r="C33" s="3">
+        <f>AVERAGE(C28:C29)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="3">
-        <v>5</v>
-      </c>
-      <c r="C34" s="3">
-        <v>12</v>
-      </c>
-    </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="3" t="s">
+      <c r="A35" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="3">
-        <f>AVERAGE(C32:C34)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="4">
-        <f>AVERAGE(C2:C13,C19:C26,C32:C34)</f>
-        <v>15.5652173913043</v>
+      <c r="B35" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="4">
+        <f>AVERAGE(C2:C13,C19:C22,C28:C29)</f>
+        <v>15.8888888888889</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/laodu/zz_ld_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/laodu/zz_ld_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13680" windowHeight="10620" activeTab="3"/>
+    <workbookView windowWidth="11610" windowHeight="10560" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="帝国" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="74">
   <si>
     <t>名称</t>
   </si>
@@ -53,12 +53,12 @@
     <t>圣殿弩手</t>
   </si>
   <si>
+    <t>田园守望者</t>
+  </si>
+  <si>
     <t>增援战线</t>
   </si>
   <si>
-    <t>田园守望者</t>
-  </si>
-  <si>
     <t>光明惩戒</t>
   </si>
   <si>
@@ -68,12 +68,12 @@
     <t>蓝色卡等：</t>
   </si>
   <si>
+    <t>传记·钢铁守卫</t>
+  </si>
+  <si>
     <t>四芒军旗</t>
   </si>
   <si>
-    <t>传记·钢铁守卫</t>
-  </si>
-  <si>
     <t>圣殿御卫</t>
   </si>
   <si>
@@ -86,24 +86,15 @@
     <t>边境高墙</t>
   </si>
   <si>
-    <t>冲锋装备</t>
-  </si>
-  <si>
     <t>召集护卫</t>
   </si>
   <si>
     <t>夺取阵地</t>
   </si>
   <si>
-    <t>炽阳坠落</t>
-  </si>
-  <si>
     <t>禁卫百夫长</t>
   </si>
   <si>
-    <t>禁卫指挥官</t>
-  </si>
-  <si>
     <t>紫色卡等：</t>
   </si>
   <si>
@@ -161,6 +152,9 @@
     <t>在逃重犯</t>
   </si>
   <si>
+    <t>寻宝队长</t>
+  </si>
+  <si>
     <t>奴役黑猿</t>
   </si>
   <si>
@@ -222,9 +216,6 @@
   </si>
   <si>
     <t>拒马</t>
-  </si>
-  <si>
-    <t>飓风术</t>
   </si>
   <si>
     <t>连击</t>
@@ -1224,10 +1215,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1311,7 +1302,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1355,7 +1346,7 @@
       </c>
       <c r="C12" s="1">
         <f>AVERAGE(C2:C9)</f>
-        <v>19.375</v>
+        <v>19.5</v>
       </c>
       <c r="D12" s="2"/>
     </row>
@@ -1367,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1430,10 +1421,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1444,7 +1435,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1452,65 +1443,65 @@
         <v>20</v>
       </c>
       <c r="B23" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C23" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="2">
-        <v>4</v>
-      </c>
-      <c r="C24" s="2">
-        <v>14</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="2">
-        <v>5</v>
-      </c>
-      <c r="C25" s="2">
-        <v>19</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="2">
+        <f>AVERAGE(C15:C23)</f>
+        <v>18.6666666666667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="3">
+        <v>4</v>
+      </c>
+      <c r="C29" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="2">
-        <v>6</v>
-      </c>
-      <c r="C26" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="3">
+        <v>4</v>
+      </c>
+      <c r="C30" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="2">
-        <f>AVERAGE(C15:C26)</f>
-        <v>17.5</v>
+      <c r="B31" s="3">
+        <v>5</v>
+      </c>
+      <c r="C31" s="3">
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1518,10 +1509,10 @@
         <v>25</v>
       </c>
       <c r="B32" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C32" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1529,77 +1520,44 @@
         <v>26</v>
       </c>
       <c r="B33" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C33" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="3">
-        <v>5</v>
-      </c>
-      <c r="C34" s="3">
-        <v>19</v>
-      </c>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="3">
-        <v>6</v>
-      </c>
-      <c r="C35" s="3">
-        <v>18</v>
-      </c>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="3">
+        <f>AVERAGE(C29:C33)</f>
+        <v>17.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="3">
-        <v>8</v>
-      </c>
-      <c r="C36" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="3">
-        <f>AVERAGE(C32:C36)</f>
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="4">
-        <f>AVERAGE(C2:C9,C15:C26,C32:C36)</f>
-        <v>18.04</v>
+      <c r="C39" s="4">
+        <f>AVERAGE(C2:C9,C15:C23,C29:C33)</f>
+        <v>18.6818181818182</v>
       </c>
     </row>
   </sheetData>
@@ -1614,10 +1572,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1640,7 +1598,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1651,18 +1609,18 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -1673,18 +1631,18 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -1695,7 +1653,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -1706,7 +1664,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -1734,13 +1692,13 @@
       </c>
       <c r="C11" s="1">
         <f>AVERAGE(C2:C8)</f>
-        <v>17.8571428571429</v>
+        <v>18.1428571428571</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
@@ -1751,7 +1709,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
@@ -1762,7 +1720,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B16" s="2">
         <v>4</v>
@@ -1773,7 +1731,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
@@ -1784,19 +1742,25 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
       <c r="C18" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2"/>
@@ -1804,54 +1768,54 @@
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="2">
-        <f>AVERAGE(C14:C18)</f>
-        <v>15.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="3">
-        <v>2</v>
-      </c>
-      <c r="C24" s="3">
-        <v>17</v>
+      <c r="B22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="2">
+        <f>AVERAGE(C14:C19)</f>
+        <v>15.3333333333333</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B25" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B26" s="3">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="3">
         <v>4</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C27" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3"/>
@@ -1859,27 +1823,32 @@
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="3">
-        <f>AVERAGE(C24:C26)</f>
-        <v>14.3333333333333</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="4">
-        <f>AVERAGE(C2:C8,C14:C18,C24:C26)</f>
-        <v>16.3333333333333</v>
+      <c r="B30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="3">
+        <f>AVERAGE(C25:C27)</f>
+        <v>14.6666666666667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="4">
+        <f>AVERAGE(C2:C8,C14:C19,C25:C27)</f>
+        <v>16.4375</v>
       </c>
     </row>
   </sheetData>
@@ -1893,8 +1862,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1917,29 +1886,29 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -1950,7 +1919,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -1961,29 +1930,29 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -1994,7 +1963,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
@@ -2022,13 +1991,13 @@
       </c>
       <c r="C12" s="1">
         <f>AVERAGE(C2:C9)</f>
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
@@ -2039,18 +2008,18 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
@@ -2061,7 +2030,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
@@ -2072,24 +2041,24 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B19" s="2">
         <v>5</v>
       </c>
       <c r="C19" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B20" s="2">
         <v>5</v>
       </c>
       <c r="C20" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2107,16 +2076,16 @@
         <v>10</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C23" s="2">
         <f>AVERAGE(C15:C20)</f>
-        <v>16.6666666666667</v>
+        <v>17.1666666666667</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B26" s="3">
         <v>5</v>
@@ -2140,7 +2109,7 @@
         <v>10</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C29" s="3">
         <f>AVERAGE(C26:C26)</f>
@@ -2149,14 +2118,14 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C9,C15:C20,C26:C26)</f>
-        <v>16</v>
+        <v>16.4666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -2168,10 +2137,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A28" sqref="$A28:$XFD28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2194,7 +2163,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -2205,18 +2174,18 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -2227,29 +2196,29 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -2260,99 +2229,99 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
       </c>
       <c r="C11" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="1">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1">
-        <v>13</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="1">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="1">
-        <f>AVERAGE(C2:C13)</f>
-        <v>15.75</v>
-      </c>
-      <c r="D16" s="2"/>
+      <c r="C14" s="1">
+        <f>AVERAGE(C2:C11)</f>
+        <v>16.5</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="2">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" s="2">
         <v>20</v>
@@ -2360,113 +2329,91 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="2">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2">
+        <f>AVERAGE(C17:C20)</f>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="2">
-        <v>3</v>
-      </c>
-      <c r="C20" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
+      <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="2">
-        <v>4</v>
-      </c>
-      <c r="C21" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
+      <c r="B27" s="3">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="3">
+        <f>AVERAGE(C26:C27)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="2">
-        <v>4</v>
-      </c>
-      <c r="C22" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="2">
-        <f>AVERAGE(C19:C22)</f>
-        <v>18.25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="3">
-        <v>4</v>
-      </c>
-      <c r="C28" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="3">
-        <v>5</v>
-      </c>
-      <c r="C29" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="3">
-        <f>AVERAGE(C28:C29)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="4">
-        <f>AVERAGE(C2:C13,C19:C22,C28:C29)</f>
-        <v>15.8888888888889</v>
+      <c r="C33" s="4">
+        <f>AVERAGE(C2:C11,C17:C20,C26:C27)</f>
+        <v>16.4375</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/laodu/zz_ld_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/laodu/zz_ld_level.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11610" windowHeight="10560" activeTab="3"/>
+    <workbookView windowWidth="11520" windowHeight="10905" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="帝国" sheetId="5" r:id="rId1"/>
     <sheet name="港口" sheetId="6" r:id="rId2"/>
-    <sheet name="蛮石" sheetId="10" r:id="rId3"/>
-    <sheet name="禅意" sheetId="7" r:id="rId4"/>
+    <sheet name="禅意" sheetId="7" r:id="rId3"/>
+    <sheet name="隐秘" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="71">
   <si>
     <t>名称</t>
   </si>
@@ -53,12 +53,12 @@
     <t>圣殿弩手</t>
   </si>
   <si>
+    <t>增援战线</t>
+  </si>
+  <si>
     <t>田园守望者</t>
   </si>
   <si>
-    <t>增援战线</t>
-  </si>
-  <si>
     <t>光明惩戒</t>
   </si>
   <si>
@@ -149,88 +149,40 @@
     <t>黑金诈术师</t>
   </si>
   <si>
-    <t>在逃重犯</t>
-  </si>
-  <si>
     <t>寻宝队长</t>
   </si>
   <si>
     <t>奴役黑猿</t>
   </si>
   <si>
-    <t>花剑绅士·翔</t>
-  </si>
-  <si>
     <t>海燕·鲍莉</t>
   </si>
   <si>
+    <t>赤影·艾希尔</t>
+  </si>
+  <si>
     <t>戴维的惊天计谋</t>
   </si>
   <si>
     <t>港口卡等：</t>
   </si>
   <si>
-    <t>愚笨鲸头鹅</t>
-  </si>
-  <si>
-    <t>势如破竹</t>
-  </si>
-  <si>
-    <t>蓄力射手</t>
-  </si>
-  <si>
-    <t>蛮石穿山甲</t>
-  </si>
-  <si>
-    <t>迅捷长矛手</t>
-  </si>
-  <si>
-    <t>天降碎石</t>
-  </si>
-  <si>
-    <t>强行捕猎</t>
-  </si>
-  <si>
-    <t>无畏猎户</t>
-  </si>
-  <si>
-    <t>地洞巨獾</t>
-  </si>
-  <si>
-    <t>活力仙人掌</t>
-  </si>
-  <si>
-    <t>飞斧狂人</t>
-  </si>
-  <si>
-    <t>石斧头领</t>
-  </si>
-  <si>
-    <t>飞斧女豪</t>
-  </si>
-  <si>
-    <t>血饮烈斧·凯</t>
-  </si>
-  <si>
-    <t>蛮石卡等：</t>
-  </si>
-  <si>
-    <t>拒马</t>
+    <t>太极剑法</t>
+  </si>
+  <si>
+    <t>执剑道者</t>
   </si>
   <si>
     <t>连击</t>
   </si>
   <si>
-    <t>执剑道者</t>
-  </si>
-  <si>
     <t>龟族僧人</t>
   </si>
   <si>
     <t>铁山靠</t>
   </si>
   <si>
-    <t>风卷残云</t>
+    <t>叶幻师</t>
   </si>
   <si>
     <t>驱魔道人</t>
@@ -242,16 +194,55 @@
     <t>御风武者</t>
   </si>
   <si>
-    <t>泰山之力</t>
+    <t>萌化术</t>
+  </si>
+  <si>
+    <t>万物之灵</t>
+  </si>
+  <si>
+    <t>灵龟神丹</t>
   </si>
   <si>
     <t>悟能禅杖</t>
   </si>
   <si>
-    <t>长生不老树</t>
-  </si>
-  <si>
     <t>禅意卡等：</t>
+  </si>
+  <si>
+    <t>沉重否定</t>
+  </si>
+  <si>
+    <t>方尖魔碑</t>
+  </si>
+  <si>
+    <t>全数否定</t>
+  </si>
+  <si>
+    <t>占卜命运</t>
+  </si>
+  <si>
+    <t>学仆-能源型</t>
+  </si>
+  <si>
+    <t>克隆术</t>
+  </si>
+  <si>
+    <t>白首魔根</t>
+  </si>
+  <si>
+    <t>心灵操控</t>
+  </si>
+  <si>
+    <t>魔像-钢翼仲裁者</t>
+  </si>
+  <si>
+    <t>No.2时光·米拉</t>
+  </si>
+  <si>
+    <t>No.3伊斯多维尔</t>
+  </si>
+  <si>
+    <t>隐秘卡等：</t>
   </si>
 </sst>
 </file>
@@ -1215,9 +1206,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -1247,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1258,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1269,7 +1260,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1280,7 +1271,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1291,7 +1282,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1313,7 +1304,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1346,7 +1337,7 @@
       </c>
       <c r="C12" s="1">
         <f>AVERAGE(C2:C9)</f>
-        <v>19.5</v>
+        <v>20.75</v>
       </c>
       <c r="D12" s="2"/>
     </row>
@@ -1358,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1369,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1380,7 +1371,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1391,7 +1382,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1402,7 +1393,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1440,19 +1431,25 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B24" s="2">
         <v>5</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C24" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2"/>
@@ -1460,76 +1457,76 @@
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="2">
-        <f>AVERAGE(C15:C23)</f>
-        <v>18.6666666666667</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="3">
-        <v>4</v>
-      </c>
-      <c r="C29" s="3">
-        <v>20</v>
+      <c r="C27" s="2">
+        <f>AVERAGE(C15:C24)</f>
+        <v>18.9</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30" s="3">
         <v>4</v>
       </c>
       <c r="C30" s="3">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" s="3">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="3">
+        <v>6</v>
+      </c>
+      <c r="C33" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B34" s="3">
         <v>8</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C34" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="3"/>
@@ -1537,27 +1534,32 @@
       <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="3">
-        <f>AVERAGE(C29:C33)</f>
-        <v>17.4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="4" t="s">
+      <c r="C37" s="3">
+        <f>AVERAGE(C30:C34)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B40" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="4">
-        <f>AVERAGE(C2:C9,C15:C23,C29:C33)</f>
-        <v>18.6818181818182</v>
+      <c r="C40" s="4">
+        <f>AVERAGE(C2:C9,C15:C24,C30:C34)</f>
+        <v>19.3478260869565</v>
       </c>
     </row>
   </sheetData>
@@ -1572,10 +1574,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1615,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1626,7 +1628,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1637,7 +1639,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1648,7 +1650,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1659,7 +1661,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1670,7 +1672,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1692,7 +1694,7 @@
       </c>
       <c r="C11" s="1">
         <f>AVERAGE(C2:C8)</f>
-        <v>18.1428571428571</v>
+        <v>19.4285714285714</v>
       </c>
       <c r="D11" s="2"/>
     </row>
@@ -1704,7 +1706,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1726,7 +1728,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1737,7 +1739,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1752,15 +1754,9 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="2">
-        <v>4</v>
-      </c>
-      <c r="C19" s="2">
-        <v>14</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2"/>
@@ -1768,20 +1764,26 @@
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
+      <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="2">
-        <f>AVERAGE(C14:C19)</f>
-        <v>15.3333333333333</v>
+      <c r="C21" s="2">
+        <f>AVERAGE(C14:C18)</f>
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="3">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3">
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1789,10 +1791,10 @@
         <v>42</v>
       </c>
       <c r="B25" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C25" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1800,22 +1802,16 @@
         <v>43</v>
       </c>
       <c r="B26" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="3">
-        <v>4</v>
-      </c>
-      <c r="C27" s="3">
-        <v>12</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3"/>
@@ -1823,32 +1819,27 @@
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
+      <c r="A29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="3">
-        <f>AVERAGE(C25:C27)</f>
+      <c r="C29" s="3">
+        <f>AVERAGE(C24:C26)</f>
         <v>14.6666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4" t="s">
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="4">
-        <f>AVERAGE(C2:C8,C14:C19,C25:C27)</f>
-        <v>16.4375</v>
+      <c r="B32" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="4">
+        <f>AVERAGE(C2:C8,C14:C18,C24:C26)</f>
+        <v>17.4</v>
       </c>
     </row>
   </sheetData>
@@ -1863,7 +1854,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1886,24 +1877,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1911,155 +1902,149 @@
         <v>47</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="1">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1">
-        <v>12</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="1">
-        <f>AVERAGE(C2:C9)</f>
-        <v>16.5</v>
-      </c>
-      <c r="D12" s="2"/>
+      <c r="C11" s="1">
+        <f>AVERAGE(C2:C8)</f>
+        <v>18.7142857142857</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B19" s="2">
         <v>5</v>
       </c>
       <c r="C19" s="2">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="2">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2">
-        <v>16</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2"/>
@@ -2067,28 +2052,34 @@
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
+      <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="2">
-        <f>AVERAGE(C15:C20)</f>
-        <v>17.1666666666667</v>
+      <c r="C22" s="2">
+        <f>AVERAGE(C14:C19)</f>
+        <v>16.1666666666667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="3">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B26" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" s="3">
         <v>12</v>
@@ -2112,7 +2103,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="3">
-        <f>AVERAGE(C26:C26)</f>
+        <f>AVERAGE(C25:C26)</f>
         <v>12</v>
       </c>
     </row>
@@ -2121,11 +2112,11 @@
         <v>28</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C32" s="4">
-        <f>AVERAGE(C2:C9,C15:C20,C26:C26)</f>
-        <v>16.4666666666667</v>
+        <f>AVERAGE(C2:C8,C14:C19,C25:C26)</f>
+        <v>16.8</v>
       </c>
     </row>
   </sheetData>
@@ -2137,10 +2128,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2163,43 +2154,43 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
         <v>12</v>
@@ -2207,136 +2198,130 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1">
+        <f>AVERAGE(C2:C8)</f>
+        <v>12.1428571428571</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="2">
         <v>3</v>
       </c>
-      <c r="C8" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="1">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="1">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="1">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1">
-        <f>AVERAGE(C2:C11)</f>
-        <v>16.5</v>
-      </c>
-      <c r="D14" s="2"/>
+      <c r="C15" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B17" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B18" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C18" s="2">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B19" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19" s="2">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="2">
-        <v>4</v>
-      </c>
-      <c r="C20" s="2">
-        <v>14</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2"/>
@@ -2344,43 +2329,43 @@
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
+      <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="2">
-        <f>AVERAGE(C17:C20)</f>
-        <v>18.5</v>
+      <c r="C22" s="2">
+        <f>AVERAGE(C14:C19)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="3">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B26" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C26" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="3">
-        <v>5</v>
-      </c>
-      <c r="C27" s="3">
-        <v>12</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3"/>
@@ -2388,32 +2373,27 @@
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
+      <c r="A29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="3">
-        <f>AVERAGE(C26:C27)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4" t="s">
+      <c r="C29" s="3">
+        <f>AVERAGE(C25:C26)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" s="4">
-        <f>AVERAGE(C2:C11,C17:C20,C26:C27)</f>
-        <v>16.4375</v>
+      <c r="B32" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="4">
+        <f>AVERAGE(C2:C8,C14:C19,C25:C26)</f>
+        <v>12.0666666666667</v>
       </c>
     </row>
   </sheetData>
